--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73563427-3DFF-4ADC-BB89-E31810E673DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92EC6DC-4AFC-4C38-AE67-2DCD0C2096DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="388">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1506,6 +1506,30 @@
   <si>
     <t>현상수배
 귀왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon127</t>
+  </si>
+  <si>
+    <t>weapon128</t>
+  </si>
+  <si>
+    <t>만독귀의의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사령신군의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+만독귀의에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+사령신군에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1970,11 +1994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB128" sqref="AB128"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13394,6 +13418,184 @@
         <v>126</v>
       </c>
     </row>
+    <row r="129" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>382</v>
+      </c>
+      <c r="C129" t="s">
+        <v>384</v>
+      </c>
+      <c r="D129">
+        <v>29</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+      <c r="F129">
+        <v>1.2</v>
+      </c>
+      <c r="G129">
+        <v>100</v>
+      </c>
+      <c r="H129">
+        <v>191</v>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129" s="6">
+        <v>57</v>
+      </c>
+      <c r="U129" s="7">
+        <v>46</v>
+      </c>
+      <c r="V129" s="7">
+        <v>220000</v>
+      </c>
+      <c r="W129" s="7">
+        <v>46</v>
+      </c>
+      <c r="X129" s="7">
+        <v>220000</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z129" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA129" s="14">
+        <v>2000000000000</v>
+      </c>
+      <c r="AB129" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC129" s="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>383</v>
+      </c>
+      <c r="C130" t="s">
+        <v>385</v>
+      </c>
+      <c r="D130">
+        <v>29</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+      <c r="F130">
+        <v>1.2</v>
+      </c>
+      <c r="G130">
+        <v>100</v>
+      </c>
+      <c r="H130">
+        <v>192</v>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130" s="6">
+        <v>58</v>
+      </c>
+      <c r="U130" s="7">
+        <v>46</v>
+      </c>
+      <c r="V130" s="7">
+        <v>220000</v>
+      </c>
+      <c r="W130" s="7">
+        <v>46</v>
+      </c>
+      <c r="X130" s="7">
+        <v>220000</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z130" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA130" s="14">
+        <v>2000000000000</v>
+      </c>
+      <c r="AB130" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC130" s="12">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AA86" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92EC6DC-4AFC-4C38-AE67-2DCD0C2096DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1424BD-9855-4B3F-BBC9-6F3F28BCB015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
-    <sheet name="Prob" sheetId="2" r:id="rId2"/>
+    <sheet name="TransBalance" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Prob" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weapon!$A$1:$AA$86</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="418">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1530,6 +1531,113 @@
   <si>
     <t>현상수배
 사령신군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon129</t>
+  </si>
+  <si>
+    <t>weapon130</t>
+  </si>
+  <si>
+    <t>weapon131</t>
+  </si>
+  <si>
+    <t>TransRequireValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransEffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransEffectValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차</t>
+  </si>
+  <si>
+    <t>4주차</t>
+  </si>
+  <si>
+    <t>5주차</t>
+  </si>
+  <si>
+    <t>6주차</t>
+  </si>
+  <si>
+    <t>7주차</t>
+  </si>
+  <si>
+    <t>8주차</t>
+  </si>
+  <si>
+    <t>9주차</t>
+  </si>
+  <si>
+    <t>10주차</t>
+  </si>
+  <si>
+    <t>11주차</t>
+  </si>
+  <si>
+    <t>12주차</t>
+  </si>
+  <si>
+    <t>13주차</t>
+  </si>
+  <si>
+    <t>14주차</t>
+  </si>
+  <si>
+    <t>15주차</t>
+  </si>
+  <si>
+    <t>동악신로의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음명진군의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+동악신로에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+음명진군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주년 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주년 상점
+보상 교환에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1994,11 +2102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AC130"/>
+  <dimension ref="A1:AF133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T129" sqref="T129"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2024,9 +2132,12 @@
     <col min="26" max="26" width="19.875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20.75" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2114,8 +2225,17 @@
       <c r="AC1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -2203,8 +2323,19 @@
       <c r="AC2" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD2" s="12">
+        <f>IFERROR(VLOOKUP(A2,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF2" s="12">
+        <f>IFERROR(VLOOKUP(A2,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2292,8 +2423,19 @@
       <c r="AC3" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD3" s="12">
+        <f>IFERROR(VLOOKUP(A3,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF3" s="12">
+        <f>IFERROR(VLOOKUP(A3,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -2381,8 +2523,19 @@
       <c r="AC4" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD4" s="12">
+        <f>IFERROR(VLOOKUP(A4,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF4" s="12">
+        <f>IFERROR(VLOOKUP(A4,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -2470,8 +2623,19 @@
       <c r="AC5" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD5" s="12">
+        <f>IFERROR(VLOOKUP(A5,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF5" s="12">
+        <f>IFERROR(VLOOKUP(A5,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -2559,8 +2723,19 @@
       <c r="AC6" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD6" s="12">
+        <f>IFERROR(VLOOKUP(A6,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF6" s="12">
+        <f>IFERROR(VLOOKUP(A6,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -2648,8 +2823,19 @@
       <c r="AC7" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD7" s="12">
+        <f>IFERROR(VLOOKUP(A7,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF7" s="12">
+        <f>IFERROR(VLOOKUP(A7,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2737,8 +2923,19 @@
       <c r="AC8" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD8" s="12">
+        <f>IFERROR(VLOOKUP(A8,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF8" s="12">
+        <f>IFERROR(VLOOKUP(A8,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -2826,8 +3023,19 @@
       <c r="AC9" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD9" s="12">
+        <f>IFERROR(VLOOKUP(A9,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF9" s="12">
+        <f>IFERROR(VLOOKUP(A9,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -2915,8 +3123,19 @@
       <c r="AC10" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD10" s="12">
+        <f>IFERROR(VLOOKUP(A10,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF10" s="12">
+        <f>IFERROR(VLOOKUP(A10,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -3004,8 +3223,19 @@
       <c r="AC11" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD11" s="12">
+        <f>IFERROR(VLOOKUP(A11,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF11" s="12">
+        <f>IFERROR(VLOOKUP(A11,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -3093,8 +3323,19 @@
       <c r="AC12" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD12" s="12">
+        <f>IFERROR(VLOOKUP(A12,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF12" s="12">
+        <f>IFERROR(VLOOKUP(A12,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -3182,8 +3423,19 @@
       <c r="AC13" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD13" s="12">
+        <f>IFERROR(VLOOKUP(A13,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF13" s="12">
+        <f>IFERROR(VLOOKUP(A13,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -3271,8 +3523,19 @@
       <c r="AC14" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD14" s="12">
+        <f>IFERROR(VLOOKUP(A14,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF14" s="12">
+        <f>IFERROR(VLOOKUP(A14,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -3360,8 +3623,19 @@
       <c r="AC15" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD15" s="12">
+        <f>IFERROR(VLOOKUP(A15,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF15" s="12">
+        <f>IFERROR(VLOOKUP(A15,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -3449,8 +3723,19 @@
       <c r="AC16" s="12">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD16" s="12">
+        <f>IFERROR(VLOOKUP(A16,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF16" s="12">
+        <f>IFERROR(VLOOKUP(A16,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -3538,8 +3823,19 @@
       <c r="AC17" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD17" s="12">
+        <f>IFERROR(VLOOKUP(A17,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF17" s="12">
+        <f>IFERROR(VLOOKUP(A17,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -3627,8 +3923,19 @@
       <c r="AC18" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD18" s="12">
+        <f>IFERROR(VLOOKUP(A18,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF18" s="12">
+        <f>IFERROR(VLOOKUP(A18,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -3716,8 +4023,19 @@
       <c r="AC19" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD19" s="12">
+        <f>IFERROR(VLOOKUP(A19,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF19" s="12">
+        <f>IFERROR(VLOOKUP(A19,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -3805,8 +4123,19 @@
       <c r="AC20" s="12">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD20" s="12">
+        <f>IFERROR(VLOOKUP(A20,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF20" s="12">
+        <f>IFERROR(VLOOKUP(A20,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -3894,8 +4223,19 @@
       <c r="AC21" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD21" s="12">
+        <f>IFERROR(VLOOKUP(A21,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF21" s="12">
+        <f>IFERROR(VLOOKUP(A21,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3983,8 +4323,19 @@
       <c r="AC22" s="12">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD22" s="12">
+        <f>IFERROR(VLOOKUP(A22,TransBalance!D:J,6,FALSE),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF22" s="12">
+        <f>IFERROR(VLOOKUP(A22,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4072,8 +4423,19 @@
       <c r="AC23" s="12">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD23" s="12">
+        <f>IFERROR(VLOOKUP(A23,TransBalance!D:J,6,FALSE),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE23" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF23" s="12">
+        <f>IFERROR(VLOOKUP(A23,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4161,8 +4523,19 @@
       <c r="AC24" s="12">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD24" s="12">
+        <f>IFERROR(VLOOKUP(A24,TransBalance!D:J,6,FALSE),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE24" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF24" s="12">
+        <f>IFERROR(VLOOKUP(A24,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4250,8 +4623,19 @@
       <c r="AC25" s="12">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD25" s="12">
+        <f>IFERROR(VLOOKUP(A25,TransBalance!D:J,6,FALSE),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE25" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF25" s="12">
+        <f>IFERROR(VLOOKUP(A25,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4339,8 +4723,19 @@
       <c r="AC26" s="12">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD26" s="12">
+        <f>IFERROR(VLOOKUP(A26,TransBalance!D:J,6,FALSE),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE26" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF26" s="12">
+        <f>IFERROR(VLOOKUP(A26,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4428,8 +4823,19 @@
       <c r="AC27" s="12">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD27" s="12">
+        <f>IFERROR(VLOOKUP(A27,TransBalance!D:J,6,FALSE),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE27" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF27" s="12">
+        <f>IFERROR(VLOOKUP(A27,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4517,8 +4923,19 @@
       <c r="AC28" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD28" s="12">
+        <f>IFERROR(VLOOKUP(A28,TransBalance!D:J,6,FALSE),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE28" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF28" s="12">
+        <f>IFERROR(VLOOKUP(A28,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4606,8 +5023,19 @@
       <c r="AC29" s="12">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD29" s="12">
+        <f>IFERROR(VLOOKUP(A29,TransBalance!D:J,6,FALSE),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE29" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF29" s="12">
+        <f>IFERROR(VLOOKUP(A29,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4695,8 +5123,19 @@
       <c r="AC30" s="12">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD30" s="12">
+        <f>IFERROR(VLOOKUP(A30,TransBalance!D:J,6,FALSE),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE30" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF30" s="12">
+        <f>IFERROR(VLOOKUP(A30,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4784,8 +5223,19 @@
       <c r="AC31" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD31" s="12">
+        <f>IFERROR(VLOOKUP(A31,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AE31" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF31" s="12">
+        <f>IFERROR(VLOOKUP(A31,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4873,8 +5323,19 @@
       <c r="AC32" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD32" s="12">
+        <f>IFERROR(VLOOKUP(A32,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AE32" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF32" s="12">
+        <f>IFERROR(VLOOKUP(A32,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4962,8 +5423,19 @@
       <c r="AC33" s="12">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD33" s="12">
+        <f>IFERROR(VLOOKUP(A33,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AE33" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF33" s="12">
+        <f>IFERROR(VLOOKUP(A33,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5051,8 +5523,19 @@
       <c r="AC34" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD34" s="12">
+        <f>IFERROR(VLOOKUP(A34,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AE34" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF34" s="12">
+        <f>IFERROR(VLOOKUP(A34,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5140,8 +5623,19 @@
       <c r="AC35" s="12">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD35" s="12">
+        <f>IFERROR(VLOOKUP(A35,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AE35" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF35" s="12">
+        <f>IFERROR(VLOOKUP(A35,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5229,8 +5723,19 @@
       <c r="AC36" s="12">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD36" s="12">
+        <f>IFERROR(VLOOKUP(A36,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AE36" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF36" s="12">
+        <f>IFERROR(VLOOKUP(A36,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5318,8 +5823,19 @@
       <c r="AC37" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD37" s="12">
+        <f>IFERROR(VLOOKUP(A37,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AE37" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF37" s="12">
+        <f>IFERROR(VLOOKUP(A37,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5407,8 +5923,19 @@
       <c r="AC38" s="12">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD38" s="12">
+        <f>IFERROR(VLOOKUP(A38,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AE38" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF38" s="12">
+        <f>IFERROR(VLOOKUP(A38,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -5496,8 +6023,19 @@
       <c r="AC39" s="12">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD39" s="12">
+        <f>IFERROR(VLOOKUP(A39,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF39" s="12">
+        <f>IFERROR(VLOOKUP(A39,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -5585,8 +6123,19 @@
       <c r="AC40" s="12">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD40" s="12">
+        <f>IFERROR(VLOOKUP(A40,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF40" s="12">
+        <f>IFERROR(VLOOKUP(A40,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -5674,8 +6223,19 @@
       <c r="AC41" s="12">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD41" s="12">
+        <f>IFERROR(VLOOKUP(A41,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF41" s="12">
+        <f>IFERROR(VLOOKUP(A41,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -5763,8 +6323,19 @@
       <c r="AC42" s="12">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD42" s="12">
+        <f>IFERROR(VLOOKUP(A42,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF42" s="12">
+        <f>IFERROR(VLOOKUP(A42,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -5852,8 +6423,19 @@
       <c r="AC43" s="12">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD43" s="12">
+        <f>IFERROR(VLOOKUP(A43,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF43" s="12">
+        <f>IFERROR(VLOOKUP(A43,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -5941,8 +6523,19 @@
       <c r="AC44" s="12">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD44" s="12">
+        <f>IFERROR(VLOOKUP(A44,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF44" s="12">
+        <f>IFERROR(VLOOKUP(A44,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -6030,8 +6623,19 @@
       <c r="AC45" s="12">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD45" s="12">
+        <f>IFERROR(VLOOKUP(A45,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AE45" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF45" s="12">
+        <f>IFERROR(VLOOKUP(A45,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -6119,8 +6723,19 @@
       <c r="AC46" s="12">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD46" s="12">
+        <f>IFERROR(VLOOKUP(A46,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AE46" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF46" s="12">
+        <f>IFERROR(VLOOKUP(A46,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -6208,8 +6823,19 @@
       <c r="AC47" s="12">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD47" s="12">
+        <f>IFERROR(VLOOKUP(A47,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF47" s="12">
+        <f>IFERROR(VLOOKUP(A47,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -6297,8 +6923,19 @@
       <c r="AC48" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD48" s="12">
+        <f>IFERROR(VLOOKUP(A48,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF48" s="12">
+        <f>IFERROR(VLOOKUP(A48,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -6386,8 +7023,19 @@
       <c r="AC49" s="12">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD49" s="12">
+        <f>IFERROR(VLOOKUP(A49,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF49" s="12">
+        <f>IFERROR(VLOOKUP(A49,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -6475,8 +7123,19 @@
       <c r="AC50" s="12">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD50" s="12">
+        <f>IFERROR(VLOOKUP(A50,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF50" s="12">
+        <f>IFERROR(VLOOKUP(A50,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -6564,8 +7223,19 @@
       <c r="AC51" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD51" s="12">
+        <f>IFERROR(VLOOKUP(A51,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF51" s="12">
+        <f>IFERROR(VLOOKUP(A51,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6653,8 +7323,19 @@
       <c r="AC52" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD52" s="12">
+        <f>IFERROR(VLOOKUP(A52,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AE52" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF52" s="12">
+        <f>IFERROR(VLOOKUP(A52,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6742,8 +7423,19 @@
       <c r="AC53" s="12">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD53" s="12">
+        <f>IFERROR(VLOOKUP(A53,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AE53" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF53" s="12">
+        <f>IFERROR(VLOOKUP(A53,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -6831,8 +7523,19 @@
       <c r="AC54" s="12">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD54" s="12">
+        <f>IFERROR(VLOOKUP(A54,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE54" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF54" s="12">
+        <f>IFERROR(VLOOKUP(A54,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -6920,8 +7623,19 @@
       <c r="AC55" s="12">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD55" s="12">
+        <f>IFERROR(VLOOKUP(A55,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE55" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF55" s="12">
+        <f>IFERROR(VLOOKUP(A55,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -7009,8 +7723,19 @@
       <c r="AC56" s="12">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD56" s="12">
+        <f>IFERROR(VLOOKUP(A56,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE56" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF56" s="12">
+        <f>IFERROR(VLOOKUP(A56,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -7098,8 +7823,19 @@
       <c r="AC57" s="12">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD57" s="12">
+        <f>IFERROR(VLOOKUP(A57,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE57" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF57" s="12">
+        <f>IFERROR(VLOOKUP(A57,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -7187,8 +7923,19 @@
       <c r="AC58" s="12">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD58" s="12">
+        <f>IFERROR(VLOOKUP(A58,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE58" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF58" s="12">
+        <f>IFERROR(VLOOKUP(A58,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -7276,8 +8023,19 @@
       <c r="AC59" s="12">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD59" s="12">
+        <f>IFERROR(VLOOKUP(A59,TransBalance!D:J,6,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AE59" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF59" s="12">
+        <f>IFERROR(VLOOKUP(A59,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -7365,8 +8123,19 @@
       <c r="AC60" s="12">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD60" s="12">
+        <f>IFERROR(VLOOKUP(A60,TransBalance!D:J,6,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AE60" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF60" s="12">
+        <f>IFERROR(VLOOKUP(A60,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7454,8 +8223,19 @@
       <c r="AC61" s="12">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD61" s="12">
+        <f>IFERROR(VLOOKUP(A61,TransBalance!D:J,6,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AE61" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF61" s="12">
+        <f>IFERROR(VLOOKUP(A61,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -7543,8 +8323,19 @@
       <c r="AC62" s="12">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD62" s="12">
+        <f>IFERROR(VLOOKUP(A62,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE62" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF62" s="12">
+        <f>IFERROR(VLOOKUP(A62,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -7632,8 +8423,19 @@
       <c r="AC63" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD63" s="12">
+        <f>IFERROR(VLOOKUP(A63,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE63" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF63" s="12">
+        <f>IFERROR(VLOOKUP(A63,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -7721,8 +8523,19 @@
       <c r="AC64" s="12">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD64" s="12">
+        <f>IFERROR(VLOOKUP(A64,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF64" s="12">
+        <f>IFERROR(VLOOKUP(A64,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7810,8 +8623,19 @@
       <c r="AC65" s="12">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD65" s="12">
+        <f>IFERROR(VLOOKUP(A65,TransBalance!D:J,6,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AE65" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF65" s="12">
+        <f>IFERROR(VLOOKUP(A65,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -7899,8 +8723,19 @@
       <c r="AC66" s="12">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD66" s="12">
+        <f>IFERROR(VLOOKUP(A66,TransBalance!D:J,6,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AE66" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF66" s="12">
+        <f>IFERROR(VLOOKUP(A66,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -7988,8 +8823,19 @@
       <c r="AC67" s="12">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD67" s="12">
+        <f>IFERROR(VLOOKUP(A67,TransBalance!D:J,6,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AE67" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF67" s="12">
+        <f>IFERROR(VLOOKUP(A67,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -8077,8 +8923,19 @@
       <c r="AC68" s="12">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD68" s="12">
+        <f>IFERROR(VLOOKUP(A68,TransBalance!D:J,6,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AE68" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF68" s="12">
+        <f>IFERROR(VLOOKUP(A68,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -8166,8 +9023,19 @@
       <c r="AC69" s="12">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD69" s="12">
+        <f>IFERROR(VLOOKUP(A69,TransBalance!D:J,6,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AE69" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF69" s="12">
+        <f>IFERROR(VLOOKUP(A69,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -8255,8 +9123,19 @@
       <c r="AC70" s="12">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD70" s="12">
+        <f>IFERROR(VLOOKUP(A70,TransBalance!D:J,6,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AE70" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF70" s="12">
+        <f>IFERROR(VLOOKUP(A70,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -8344,8 +9223,19 @@
       <c r="AC71" s="12">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD71" s="12">
+        <f>IFERROR(VLOOKUP(A71,TransBalance!D:J,6,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AE71" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF71" s="12">
+        <f>IFERROR(VLOOKUP(A71,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -8433,8 +9323,19 @@
       <c r="AC72" s="12">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD72" s="12">
+        <f>IFERROR(VLOOKUP(A72,TransBalance!D:J,6,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AE72" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF72" s="12">
+        <f>IFERROR(VLOOKUP(A72,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -8522,8 +9423,19 @@
       <c r="AC73" s="12">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD73" s="12">
+        <f>IFERROR(VLOOKUP(A73,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF73" s="12">
+        <f>IFERROR(VLOOKUP(A73,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -8611,8 +9523,19 @@
       <c r="AC74" s="12">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD74" s="12">
+        <f>IFERROR(VLOOKUP(A74,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF74" s="12">
+        <f>IFERROR(VLOOKUP(A74,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -8700,8 +9623,19 @@
       <c r="AC75" s="12">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD75" s="12">
+        <f>IFERROR(VLOOKUP(A75,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF75" s="12">
+        <f>IFERROR(VLOOKUP(A75,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -8789,8 +9723,19 @@
       <c r="AC76" s="12">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD76" s="12">
+        <f>IFERROR(VLOOKUP(A76,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF76" s="12">
+        <f>IFERROR(VLOOKUP(A76,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -8878,8 +9823,19 @@
       <c r="AC77" s="12">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD77" s="12">
+        <f>IFERROR(VLOOKUP(A77,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF77" s="12">
+        <f>IFERROR(VLOOKUP(A77,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -8967,8 +9923,19 @@
       <c r="AC78" s="12">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD78" s="12">
+        <f>IFERROR(VLOOKUP(A78,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF78" s="12">
+        <f>IFERROR(VLOOKUP(A78,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -9056,8 +10023,19 @@
       <c r="AC79" s="12">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD79" s="12">
+        <f>IFERROR(VLOOKUP(A79,TransBalance!D:J,6,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AE79" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF79" s="12">
+        <f>IFERROR(VLOOKUP(A79,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -9145,8 +10123,19 @@
       <c r="AC80" s="12">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD80" s="12">
+        <f>IFERROR(VLOOKUP(A80,TransBalance!D:J,6,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AE80" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF80" s="12">
+        <f>IFERROR(VLOOKUP(A80,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -9234,8 +10223,19 @@
       <c r="AC81" s="12">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD81" s="12">
+        <f>IFERROR(VLOOKUP(A81,TransBalance!D:J,6,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AE81" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF81" s="12">
+        <f>IFERROR(VLOOKUP(A81,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -9323,8 +10323,19 @@
       <c r="AC82" s="12">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD82" s="12">
+        <f>IFERROR(VLOOKUP(A82,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AE82" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF82" s="12">
+        <f>IFERROR(VLOOKUP(A82,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -9412,8 +10423,19 @@
       <c r="AC83" s="12">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD83" s="12">
+        <f>IFERROR(VLOOKUP(A83,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE83" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF83" s="12">
+        <f>IFERROR(VLOOKUP(A83,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>82</v>
       </c>
@@ -9501,8 +10523,19 @@
       <c r="AC84" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD84" s="12">
+        <f>IFERROR(VLOOKUP(A84,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF84" s="12">
+        <f>IFERROR(VLOOKUP(A84,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -9590,8 +10623,19 @@
       <c r="AC85" s="12">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD85" s="12">
+        <f>IFERROR(VLOOKUP(A85,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF85" s="12">
+        <f>IFERROR(VLOOKUP(A85,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -9679,8 +10723,19 @@
       <c r="AC86" s="12">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD86" s="12">
+        <f>IFERROR(VLOOKUP(A86,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AE86" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF86" s="12">
+        <f>IFERROR(VLOOKUP(A86,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -9768,8 +10823,19 @@
       <c r="AC87" s="12">
         <v>89</v>
       </c>
-    </row>
-    <row r="88" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD87" s="12">
+        <f>IFERROR(VLOOKUP(A87,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AE87" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF87" s="12">
+        <f>IFERROR(VLOOKUP(A87,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -9857,8 +10923,19 @@
       <c r="AC88" s="12">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD88" s="12">
+        <f>IFERROR(VLOOKUP(A88,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AE88" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF88" s="12">
+        <f>IFERROR(VLOOKUP(A88,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -9946,8 +11023,19 @@
       <c r="AC89" s="12">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD89" s="12">
+        <f>IFERROR(VLOOKUP(A89,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AE89" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF89" s="12">
+        <f>IFERROR(VLOOKUP(A89,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -10035,8 +11123,19 @@
       <c r="AC90" s="12">
         <v>92</v>
       </c>
-    </row>
-    <row r="91" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD90" s="12">
+        <f>IFERROR(VLOOKUP(A90,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AE90" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF90" s="12">
+        <f>IFERROR(VLOOKUP(A90,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -10124,8 +11223,19 @@
       <c r="AC91" s="12">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD91" s="12">
+        <f>IFERROR(VLOOKUP(A91,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AE91" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF91" s="12">
+        <f>IFERROR(VLOOKUP(A91,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -10213,8 +11323,19 @@
       <c r="AC92" s="12">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD92" s="12">
+        <f>IFERROR(VLOOKUP(A92,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE92" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF92" s="12">
+        <f>IFERROR(VLOOKUP(A92,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -10302,8 +11423,19 @@
       <c r="AC93" s="12">
         <v>80</v>
       </c>
-    </row>
-    <row r="94" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD93" s="12">
+        <f>IFERROR(VLOOKUP(A93,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AE93" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF93" s="12">
+        <f>IFERROR(VLOOKUP(A93,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -10391,8 +11523,19 @@
       <c r="AC94" s="12">
         <v>81</v>
       </c>
-    </row>
-    <row r="95" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD94" s="12">
+        <f>IFERROR(VLOOKUP(A94,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AE94" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF94" s="12">
+        <f>IFERROR(VLOOKUP(A94,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -10480,8 +11623,19 @@
       <c r="AC95" s="12">
         <v>82</v>
       </c>
-    </row>
-    <row r="96" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD95" s="12">
+        <f>IFERROR(VLOOKUP(A95,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AE95" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF95" s="12">
+        <f>IFERROR(VLOOKUP(A95,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -10569,8 +11723,19 @@
       <c r="AC96" s="12">
         <v>83</v>
       </c>
-    </row>
-    <row r="97" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD96" s="12">
+        <f>IFERROR(VLOOKUP(A96,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AE96" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF96" s="12">
+        <f>IFERROR(VLOOKUP(A96,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -10658,8 +11823,19 @@
       <c r="AC97" s="12">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD97" s="12">
+        <f>IFERROR(VLOOKUP(A97,TransBalance!D:J,6,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="AE97" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF97" s="12">
+        <f>IFERROR(VLOOKUP(A97,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -10747,8 +11923,19 @@
       <c r="AC98" s="12">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD98" s="12">
+        <f>IFERROR(VLOOKUP(A98,TransBalance!D:J,6,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="AE98" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF98" s="12">
+        <f>IFERROR(VLOOKUP(A98,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -10836,8 +12023,19 @@
       <c r="AC99" s="12">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD99" s="12">
+        <f>IFERROR(VLOOKUP(A99,TransBalance!D:J,6,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="AE99" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF99" s="12">
+        <f>IFERROR(VLOOKUP(A99,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -10925,8 +12123,19 @@
       <c r="AC100" s="12">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD100" s="12">
+        <f>IFERROR(VLOOKUP(A100,TransBalance!D:J,6,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="AE100" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF100" s="12">
+        <f>IFERROR(VLOOKUP(A100,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -11014,8 +12223,19 @@
       <c r="AC101" s="12">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD101" s="12">
+        <f>IFERROR(VLOOKUP(A101,TransBalance!D:J,6,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="AE101" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF101" s="12">
+        <f>IFERROR(VLOOKUP(A101,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -11103,8 +12323,19 @@
       <c r="AC102" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD102" s="12">
+        <f>IFERROR(VLOOKUP(A102,TransBalance!D:J,6,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="AE102" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF102" s="12">
+        <f>IFERROR(VLOOKUP(A102,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -11192,8 +12423,19 @@
       <c r="AC103" s="12">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD103" s="12">
+        <f>IFERROR(VLOOKUP(A103,TransBalance!D:J,6,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="AE103" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF103" s="12">
+        <f>IFERROR(VLOOKUP(A103,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -11281,8 +12523,19 @@
       <c r="AC104" s="12">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD104" s="12">
+        <f>IFERROR(VLOOKUP(A104,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE104" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF104" s="12">
+        <f>IFERROR(VLOOKUP(A104,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -11370,8 +12623,19 @@
       <c r="AC105" s="12">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD105" s="12">
+        <f>IFERROR(VLOOKUP(A105,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE105" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF105" s="12">
+        <f>IFERROR(VLOOKUP(A105,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -11459,8 +12723,19 @@
       <c r="AC106" s="12">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD106" s="12">
+        <f>IFERROR(VLOOKUP(A106,TransBalance!D:J,6,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="AE106" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF106" s="12">
+        <f>IFERROR(VLOOKUP(A106,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -11548,8 +12823,19 @@
       <c r="AC107" s="12">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD107" s="12">
+        <f>IFERROR(VLOOKUP(A107,TransBalance!D:J,6,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="AE107" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF107" s="12">
+        <f>IFERROR(VLOOKUP(A107,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -11637,8 +12923,19 @@
       <c r="AC108" s="12">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD108" s="12">
+        <f>IFERROR(VLOOKUP(A108,TransBalance!D:J,6,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="AE108" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF108" s="12">
+        <f>IFERROR(VLOOKUP(A108,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -11726,8 +13023,19 @@
       <c r="AC109" s="12">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD109" s="12">
+        <f>IFERROR(VLOOKUP(A109,TransBalance!D:J,6,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="AE109" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF109" s="12">
+        <f>IFERROR(VLOOKUP(A109,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -11815,8 +13123,19 @@
       <c r="AC110" s="12">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD110" s="12">
+        <f>IFERROR(VLOOKUP(A110,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AE110" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF110" s="12">
+        <f>IFERROR(VLOOKUP(A110,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -11904,8 +13223,19 @@
       <c r="AC111" s="12">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD111" s="12">
+        <f>IFERROR(VLOOKUP(A111,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AE111" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF111" s="12">
+        <f>IFERROR(VLOOKUP(A111,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -11993,8 +13323,19 @@
       <c r="AC112" s="12">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD112" s="12">
+        <f>IFERROR(VLOOKUP(A112,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AE112" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF112" s="12">
+        <f>IFERROR(VLOOKUP(A112,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -12082,8 +13423,19 @@
       <c r="AC113" s="12">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD113" s="12">
+        <f>IFERROR(VLOOKUP(A113,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AE113" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF113" s="12">
+        <f>IFERROR(VLOOKUP(A113,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -12171,8 +13523,19 @@
       <c r="AC114" s="12">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD114" s="12">
+        <f>IFERROR(VLOOKUP(A114,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AE114" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF114" s="12">
+        <f>IFERROR(VLOOKUP(A114,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -12260,8 +13623,19 @@
       <c r="AC115" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD115" s="12">
+        <f>IFERROR(VLOOKUP(A115,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AE115" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF115" s="12">
+        <f>IFERROR(VLOOKUP(A115,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -12349,8 +13723,19 @@
       <c r="AC116" s="12">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD116" s="12">
+        <f>IFERROR(VLOOKUP(A116,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AE116" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF116" s="12">
+        <f>IFERROR(VLOOKUP(A116,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -12438,8 +13823,19 @@
       <c r="AC117" s="12">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD117" s="12">
+        <f>IFERROR(VLOOKUP(A117,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AE117" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF117" s="12">
+        <f>IFERROR(VLOOKUP(A117,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -12527,8 +13923,19 @@
       <c r="AC118" s="12">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD118" s="12">
+        <f>IFERROR(VLOOKUP(A118,TransBalance!D:J,6,FALSE),0)</f>
+        <v>7</v>
+      </c>
+      <c r="AE118" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF118" s="12">
+        <f>IFERROR(VLOOKUP(A118,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -12616,8 +14023,19 @@
       <c r="AC119" s="12">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD119" s="12">
+        <f>IFERROR(VLOOKUP(A119,TransBalance!D:J,6,FALSE),0)</f>
+        <v>7</v>
+      </c>
+      <c r="AE119" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF119" s="12">
+        <f>IFERROR(VLOOKUP(A119,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -12705,8 +14123,19 @@
       <c r="AC120" s="12">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD120" s="12">
+        <f>IFERROR(VLOOKUP(A120,TransBalance!D:J,6,FALSE),0)</f>
+        <v>7</v>
+      </c>
+      <c r="AE120" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF120" s="12">
+        <f>IFERROR(VLOOKUP(A120,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -12794,8 +14223,19 @@
       <c r="AC121" s="12">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD121" s="12">
+        <f>IFERROR(VLOOKUP(A121,TransBalance!D:J,6,FALSE),0)</f>
+        <v>7</v>
+      </c>
+      <c r="AE121" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF121" s="12">
+        <f>IFERROR(VLOOKUP(A121,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -12883,8 +14323,19 @@
       <c r="AC122" s="12">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD122" s="12">
+        <f>IFERROR(VLOOKUP(A122,TransBalance!D:J,6,FALSE),0)</f>
+        <v>7</v>
+      </c>
+      <c r="AE122" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF122" s="12">
+        <f>IFERROR(VLOOKUP(A122,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -12972,8 +14423,19 @@
       <c r="AC123" s="12">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD123" s="12">
+        <f>IFERROR(VLOOKUP(A123,TransBalance!D:J,6,FALSE),0)</f>
+        <v>7</v>
+      </c>
+      <c r="AE123" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF123" s="12">
+        <f>IFERROR(VLOOKUP(A123,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -13061,8 +14523,19 @@
       <c r="AC124" s="12">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD124" s="12">
+        <f>IFERROR(VLOOKUP(A124,TransBalance!D:J,6,FALSE),0)</f>
+        <v>7</v>
+      </c>
+      <c r="AE124" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF124" s="12">
+        <f>IFERROR(VLOOKUP(A124,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -13150,8 +14623,19 @@
       <c r="AC125" s="12">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD125" s="12">
+        <f>IFERROR(VLOOKUP(A125,TransBalance!D:J,6,FALSE),0)</f>
+        <v>7</v>
+      </c>
+      <c r="AE125" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF125" s="12">
+        <f>IFERROR(VLOOKUP(A125,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -13239,8 +14723,19 @@
       <c r="AC126" s="12">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD126" s="12">
+        <f>IFERROR(VLOOKUP(A126,TransBalance!D:J,6,FALSE),0)</f>
+        <v>7</v>
+      </c>
+      <c r="AE126" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF126" s="12">
+        <f>IFERROR(VLOOKUP(A126,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -13328,8 +14823,19 @@
       <c r="AC127" s="12">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD127" s="12">
+        <f>IFERROR(VLOOKUP(A127,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE127" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF127" s="12">
+        <f>IFERROR(VLOOKUP(A127,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -13417,8 +14923,19 @@
       <c r="AC128" s="12">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD128" s="12">
+        <f>IFERROR(VLOOKUP(A128,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE128" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF128" s="12">
+        <f>IFERROR(VLOOKUP(A128,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -13506,8 +15023,19 @@
       <c r="AC129" s="12">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD129" s="12">
+        <f>IFERROR(VLOOKUP(A129,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE129" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF129" s="12">
+        <f>IFERROR(VLOOKUP(A129,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -13594,6 +15122,317 @@
       </c>
       <c r="AC130" s="12">
         <v>128</v>
+      </c>
+      <c r="AD130" s="12">
+        <f>IFERROR(VLOOKUP(A130,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE130" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF130" s="12">
+        <f>IFERROR(VLOOKUP(A130,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>388</v>
+      </c>
+      <c r="C131" t="s">
+        <v>412</v>
+      </c>
+      <c r="D131">
+        <v>29</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131">
+        <v>1.2</v>
+      </c>
+      <c r="G131">
+        <v>100</v>
+      </c>
+      <c r="H131">
+        <v>195</v>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131" s="6">
+        <v>59</v>
+      </c>
+      <c r="U131" s="7">
+        <v>46</v>
+      </c>
+      <c r="V131" s="7">
+        <v>240000</v>
+      </c>
+      <c r="W131" s="7">
+        <v>46</v>
+      </c>
+      <c r="X131" s="7">
+        <v>240000</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z131" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA131" s="14">
+        <v>2200000000000</v>
+      </c>
+      <c r="AB131" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC131" s="12">
+        <v>129</v>
+      </c>
+      <c r="AD131" s="12">
+        <f>IFERROR(VLOOKUP(A131,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE131" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF131" s="12">
+        <f>IFERROR(VLOOKUP(A131,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>389</v>
+      </c>
+      <c r="C132" t="s">
+        <v>413</v>
+      </c>
+      <c r="D132">
+        <v>29</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="F132">
+        <v>1.2</v>
+      </c>
+      <c r="G132">
+        <v>100</v>
+      </c>
+      <c r="H132">
+        <v>196</v>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132" s="6">
+        <v>60</v>
+      </c>
+      <c r="U132" s="7">
+        <v>46</v>
+      </c>
+      <c r="V132" s="7">
+        <v>240000</v>
+      </c>
+      <c r="W132" s="7">
+        <v>46</v>
+      </c>
+      <c r="X132" s="7">
+        <v>240000</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z132" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA132" s="14">
+        <v>2200000000000</v>
+      </c>
+      <c r="AB132" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC132" s="12">
+        <v>130</v>
+      </c>
+      <c r="AD132" s="12">
+        <f>IFERROR(VLOOKUP(A132,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE132" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF132" s="12">
+        <f>IFERROR(VLOOKUP(A132,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>390</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D133" s="8">
+        <v>18</v>
+      </c>
+      <c r="E133" s="8">
+        <v>4</v>
+      </c>
+      <c r="F133" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G133" s="8">
+        <v>100</v>
+      </c>
+      <c r="H133" s="8">
+        <v>96</v>
+      </c>
+      <c r="I133" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" s="8">
+        <v>0</v>
+      </c>
+      <c r="K133" s="8">
+        <v>0</v>
+      </c>
+      <c r="L133" s="8">
+        <v>0</v>
+      </c>
+      <c r="M133" s="8">
+        <v>0</v>
+      </c>
+      <c r="N133" s="8">
+        <v>0</v>
+      </c>
+      <c r="O133" s="8">
+        <v>0</v>
+      </c>
+      <c r="P133" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="8">
+        <v>0</v>
+      </c>
+      <c r="R133" s="8">
+        <v>0</v>
+      </c>
+      <c r="S133" s="8">
+        <v>0</v>
+      </c>
+      <c r="T133" s="9">
+        <v>0</v>
+      </c>
+      <c r="U133" s="10">
+        <v>0</v>
+      </c>
+      <c r="V133" s="7">
+        <v>0</v>
+      </c>
+      <c r="W133" s="10">
+        <v>0</v>
+      </c>
+      <c r="X133" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y133" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z133" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA133" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB133" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC133" s="12">
+        <v>94</v>
+      </c>
+      <c r="AD133" s="12">
+        <f>IFERROR(VLOOKUP(A133,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE133" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF133" s="12">
+        <f>IFERROR(VLOOKUP(A133,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13605,1282 +15444,2727 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DDB2AE-5599-4543-81C7-777464B5EF86}">
-  <dimension ref="A1:O33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A82B52C-5217-4EE5-B1F1-6C2A12A8616B}">
+  <dimension ref="C1:P84"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="O91" sqref="O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="10" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
-    <col min="13" max="13" width="17.625" customWidth="1"/>
-    <col min="14" max="14" width="19.25" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="38.375" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>G2/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f>J2/I2</f>
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>397</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">G3/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">J3/I3</f>
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>398</v>
+      </c>
+      <c r="O3">
+        <f>O2+50</f>
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <f>(O3-O2)*100/O2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>399</v>
+      </c>
+      <c r="O4">
+        <f>O3+50</f>
+        <v>150</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P16" si="2">(O4-O3)*100/O3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>400</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O16" si="3">O4+50</f>
+        <v>200</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>401</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>402</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>403</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="D9">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>404</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>405</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>406</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>407</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>408</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>409</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>410</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>411</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J12:J75" si="4">H19*2+I19*(H19-1)</f>
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24">
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25">
+        <v>18</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26">
+        <v>18</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29">
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30">
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31">
+        <v>18</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33">
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34">
+        <v>18</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>78</v>
+      </c>
+      <c r="E35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35">
+        <v>18</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" t="s">
+        <v>218</v>
+      </c>
+      <c r="G36">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G37">
+        <v>20</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" t="s">
+        <v>219</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>85</v>
+      </c>
+      <c r="E39" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39">
+        <v>20</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>86</v>
+      </c>
+      <c r="E40" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" t="s">
+        <v>223</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41" t="s">
+        <v>230</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>88</v>
+      </c>
+      <c r="E42" t="s">
+        <v>225</v>
+      </c>
+      <c r="F42" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42">
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>89</v>
+      </c>
+      <c r="E43" t="s">
+        <v>226</v>
+      </c>
+      <c r="F43" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>8</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>273</v>
+      </c>
+      <c r="F44" t="s">
+        <v>283</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>92</v>
+      </c>
+      <c r="E45" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" t="s">
+        <v>284</v>
+      </c>
+      <c r="G45">
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>93</v>
+      </c>
+      <c r="E46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F46" t="s">
+        <v>285</v>
+      </c>
+      <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>94</v>
+      </c>
+      <c r="E47" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" t="s">
+        <v>286</v>
+      </c>
+      <c r="G47">
+        <v>20</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>8</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>95</v>
+      </c>
+      <c r="E48" t="s">
+        <v>278</v>
+      </c>
+      <c r="F48" t="s">
+        <v>287</v>
+      </c>
+      <c r="G48">
+        <v>22</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>96</v>
+      </c>
+      <c r="E49" t="s">
+        <v>280</v>
+      </c>
+      <c r="F49" t="s">
+        <v>288</v>
+      </c>
+      <c r="G49">
+        <v>22</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>97</v>
+      </c>
+      <c r="E50" t="s">
+        <v>281</v>
+      </c>
+      <c r="F50" t="s">
+        <v>289</v>
+      </c>
+      <c r="G50">
+        <v>22</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
+        <v>282</v>
+      </c>
+      <c r="F51" t="s">
+        <v>279</v>
+      </c>
+      <c r="G51">
+        <v>22</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>99</v>
+      </c>
+      <c r="E52" t="s">
+        <v>298</v>
+      </c>
+      <c r="F52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G52">
+        <v>22</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="E53" t="s">
+        <v>299</v>
+      </c>
+      <c r="F53" t="s">
+        <v>304</v>
+      </c>
+      <c r="G53">
+        <v>22</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>101</v>
+      </c>
+      <c r="E54" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" t="s">
+        <v>306</v>
+      </c>
+      <c r="G54">
+        <v>22</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
+        <v>311</v>
+      </c>
+      <c r="F55" t="s">
+        <v>316</v>
+      </c>
+      <c r="G55">
+        <v>22</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>10</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C56">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="D56">
+        <v>105</v>
+      </c>
+      <c r="E56" t="s">
+        <v>312</v>
+      </c>
+      <c r="F56" t="s">
+        <v>321</v>
+      </c>
+      <c r="G56">
+        <v>22</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C57">
         <v>56</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="D57">
+        <v>106</v>
+      </c>
+      <c r="E57" t="s">
+        <v>313</v>
+      </c>
+      <c r="F57" t="s">
+        <v>322</v>
+      </c>
+      <c r="G57">
+        <v>22</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C58">
         <v>57</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="D58">
+        <v>107</v>
+      </c>
+      <c r="E58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F58" t="s">
+        <v>315</v>
+      </c>
+      <c r="G58">
+        <v>22</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C59">
         <v>58</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="D59">
+        <v>108</v>
+      </c>
+      <c r="E59" t="s">
+        <v>335</v>
+      </c>
+      <c r="F59" t="s">
+        <v>336</v>
+      </c>
+      <c r="G59">
+        <v>23</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59">
+        <v>13</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C60">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <f t="shared" ref="F2:O2" si="0">F21*$F$29</f>
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="D60">
+        <v>109</v>
+      </c>
+      <c r="E60" t="s">
+        <v>323</v>
+      </c>
+      <c r="F60" t="s">
+        <v>327</v>
+      </c>
+      <c r="G60">
+        <v>23</v>
+      </c>
+      <c r="H60">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="H2" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <v>13</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <v>110</v>
+      </c>
+      <c r="E61" t="s">
+        <v>324</v>
+      </c>
+      <c r="F61" t="s">
+        <v>328</v>
+      </c>
+      <c r="G61">
+        <v>23</v>
+      </c>
+      <c r="H61">
         <f t="shared" si="0"/>
-        <v>0.17</v>
-      </c>
-      <c r="I2" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61">
+        <v>13</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <v>111</v>
+      </c>
+      <c r="E62" t="s">
+        <v>325</v>
+      </c>
+      <c r="F62" t="s">
+        <v>329</v>
+      </c>
+      <c r="G62">
+        <v>23</v>
+      </c>
+      <c r="H62">
         <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="J2" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="J62">
+        <v>13</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>112</v>
+      </c>
+      <c r="E63" t="s">
+        <v>326</v>
+      </c>
+      <c r="F63" t="s">
+        <v>330</v>
+      </c>
+      <c r="G63">
+        <v>23</v>
+      </c>
+      <c r="H63">
         <f t="shared" si="0"/>
-        <v>0.124</v>
-      </c>
-      <c r="K2" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+      <c r="J63">
+        <v>13</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <v>113</v>
+      </c>
+      <c r="E64" t="s">
+        <v>339</v>
+      </c>
+      <c r="F64" t="s">
+        <v>342</v>
+      </c>
+      <c r="G64">
+        <v>23</v>
+      </c>
+      <c r="H64">
         <f t="shared" si="0"/>
-        <v>0.10720000000000002</v>
-      </c>
-      <c r="L2" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+      <c r="J64">
+        <v>13</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>114</v>
+      </c>
+      <c r="E65" t="s">
+        <v>340</v>
+      </c>
+      <c r="F65" t="s">
+        <v>343</v>
+      </c>
+      <c r="G65">
+        <v>23</v>
+      </c>
+      <c r="H65">
         <f t="shared" si="0"/>
-        <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="M2" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="J65">
+        <v>13</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66">
+        <v>115</v>
+      </c>
+      <c r="E66" t="s">
+        <v>341</v>
+      </c>
+      <c r="F66" t="s">
+        <v>344</v>
+      </c>
+      <c r="G66">
+        <v>23</v>
+      </c>
+      <c r="H66">
         <f t="shared" si="0"/>
-        <v>5.7999999999999996E-2</v>
-      </c>
-      <c r="N2" s="3">
-        <f t="shared" si="0"/>
-        <v>3.32E-2</v>
-      </c>
-      <c r="O2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:O3" si="1">F21*$F$30</f>
-        <v>0.19650000000000001</v>
-      </c>
-      <c r="G3" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I66">
+        <v>6</v>
+      </c>
+      <c r="J66">
+        <v>13</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="1"/>
-        <v>0.156</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" si="1"/>
-        <v>0.1275</v>
-      </c>
-      <c r="I3" s="3">
-        <f t="shared" si="1"/>
-        <v>0.108</v>
-      </c>
-      <c r="J3" s="3">
-        <f t="shared" si="1"/>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="K3" s="3">
-        <f t="shared" si="1"/>
-        <v>8.0399999999999999E-2</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" si="1"/>
-        <v>6.2099999999999995E-2</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" si="1"/>
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" si="1"/>
-        <v>2.4900000000000002E-2</v>
-      </c>
-      <c r="O3" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" ref="F4:O4" si="2">F21*$F$31</f>
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="2"/>
-        <v>0.10400000000000001</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="2"/>
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" si="2"/>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" si="2"/>
-        <v>6.2E-2</v>
-      </c>
-      <c r="K4" s="3">
-        <f>K21*$F$31</f>
-        <v>5.3600000000000009E-2</v>
-      </c>
-      <c r="L4" s="3">
-        <f t="shared" si="2"/>
-        <v>4.1399999999999999E-2</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" si="2"/>
-        <v>2.8999999999999998E-2</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.66E-2</v>
-      </c>
-      <c r="O4" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" ref="F5:O5" si="3">F21*$F$32</f>
-        <v>6.5500000000000003E-2</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="3"/>
-        <v>5.2000000000000005E-2</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="3"/>
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="3"/>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="3"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="K5" s="3">
-        <f>K21*$F$32</f>
-        <v>2.6800000000000004E-2</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" si="3"/>
-        <v>2.07E-2</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" si="3"/>
-        <v>1.4499999999999999E-2</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="3"/>
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="O5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" ref="F6:O6" si="4">F22*$F$29</f>
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.18792</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.22384000000000001</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.24775999999999998</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2656</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.32000000000000006</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.34</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.36400000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" ref="F7:O7" si="5">F22*$F$30</f>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="G7" s="2">
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>116</v>
+      </c>
+      <c r="E67" t="s">
+        <v>349</v>
+      </c>
+      <c r="F67" t="s">
+        <v>355</v>
+      </c>
+      <c r="G67">
+        <v>24</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H81" si="5">G67/10</f>
+        <v>2.4</v>
+      </c>
+      <c r="I67">
+        <v>7</v>
+      </c>
+      <c r="J67">
+        <v>16</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K81" si="6">J67/I67</f>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>117</v>
+      </c>
+      <c r="E68" t="s">
+        <v>350</v>
+      </c>
+      <c r="F68" t="s">
+        <v>356</v>
+      </c>
+      <c r="G68">
+        <v>24</v>
+      </c>
+      <c r="H68">
         <f t="shared" si="5"/>
-        <v>0.14093999999999998</v>
-      </c>
-      <c r="H7" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="I68">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>16</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>118</v>
+      </c>
+      <c r="E69" t="s">
+        <v>351</v>
+      </c>
+      <c r="F69" t="s">
+        <v>357</v>
+      </c>
+      <c r="G69">
+        <v>24</v>
+      </c>
+      <c r="H69">
         <f t="shared" si="5"/>
-        <v>0.16788</v>
-      </c>
-      <c r="I7" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="I69">
+        <v>7</v>
+      </c>
+      <c r="J69">
+        <v>16</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <v>119</v>
+      </c>
+      <c r="E70" t="s">
+        <v>358</v>
+      </c>
+      <c r="F70" t="s">
+        <v>364</v>
+      </c>
+      <c r="G70">
+        <v>24</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="5"/>
-        <v>0.18581999999999999</v>
-      </c>
-      <c r="J7" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="I70">
+        <v>7</v>
+      </c>
+      <c r="J70">
+        <v>16</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <v>120</v>
+      </c>
+      <c r="E71" t="s">
+        <v>359</v>
+      </c>
+      <c r="F71" t="s">
+        <v>365</v>
+      </c>
+      <c r="G71">
+        <v>24</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="5"/>
-        <v>0.19920000000000002</v>
-      </c>
-      <c r="K7" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="I71">
+        <v>7</v>
+      </c>
+      <c r="J71">
+        <v>16</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>71</v>
+      </c>
+      <c r="D72">
+        <v>121</v>
+      </c>
+      <c r="E72" t="s">
+        <v>360</v>
+      </c>
+      <c r="F72" t="s">
+        <v>366</v>
+      </c>
+      <c r="G72">
+        <v>24</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="5"/>
-        <v>0.21</v>
-      </c>
-      <c r="L7" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="I72">
+        <v>7</v>
+      </c>
+      <c r="J72">
+        <v>16</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <v>122</v>
+      </c>
+      <c r="E73" t="s">
+        <v>367</v>
+      </c>
+      <c r="F73" t="s">
+        <v>370</v>
+      </c>
+      <c r="G73">
+        <v>24</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="5"/>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="M7" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="I73">
+        <v>7</v>
+      </c>
+      <c r="J73">
+        <v>16</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="D74">
+        <v>123</v>
+      </c>
+      <c r="E74" t="s">
+        <v>368</v>
+      </c>
+      <c r="F74" t="s">
+        <v>371</v>
+      </c>
+      <c r="G74">
+        <v>24</v>
+      </c>
+      <c r="H74">
         <f t="shared" si="5"/>
-        <v>0.24</v>
-      </c>
-      <c r="N7" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="I74">
+        <v>7</v>
+      </c>
+      <c r="J74">
+        <v>16</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>124</v>
+      </c>
+      <c r="E75" t="s">
+        <v>369</v>
+      </c>
+      <c r="F75" t="s">
+        <v>372</v>
+      </c>
+      <c r="G75">
+        <v>24</v>
+      </c>
+      <c r="H75">
         <f t="shared" si="5"/>
-        <v>0.255</v>
-      </c>
-      <c r="O7" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="I75">
+        <v>7</v>
+      </c>
+      <c r="J75">
+        <v>16</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <v>125</v>
+      </c>
+      <c r="E76" t="s">
+        <v>376</v>
+      </c>
+      <c r="F76" t="s">
+        <v>378</v>
+      </c>
+      <c r="G76">
+        <v>25</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="5"/>
-        <v>0.27300000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" ref="F8:O8" si="6">F22*$F$31</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I76">
+        <v>8</v>
+      </c>
+      <c r="J76">
+        <v>18</v>
+      </c>
+      <c r="K76">
         <f t="shared" si="6"/>
-        <v>9.3960000000000002E-2</v>
-      </c>
-      <c r="H8" s="2">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <v>126</v>
+      </c>
+      <c r="E77" t="s">
+        <v>377</v>
+      </c>
+      <c r="F77" t="s">
+        <v>379</v>
+      </c>
+      <c r="G77">
+        <v>25</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <v>18</v>
+      </c>
+      <c r="K77">
         <f t="shared" si="6"/>
-        <v>0.11192000000000001</v>
-      </c>
-      <c r="I8" s="2">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>127</v>
+      </c>
+      <c r="E78" t="s">
+        <v>382</v>
+      </c>
+      <c r="F78" t="s">
+        <v>384</v>
+      </c>
+      <c r="G78">
+        <v>25</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="I78">
+        <v>8</v>
+      </c>
+      <c r="J78">
+        <v>18</v>
+      </c>
+      <c r="K78">
         <f t="shared" si="6"/>
-        <v>0.12387999999999999</v>
-      </c>
-      <c r="J8" s="2">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <v>128</v>
+      </c>
+      <c r="E79" t="s">
+        <v>383</v>
+      </c>
+      <c r="F79" t="s">
+        <v>385</v>
+      </c>
+      <c r="G79">
+        <v>25</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="I79">
+        <v>8</v>
+      </c>
+      <c r="J79">
+        <v>18</v>
+      </c>
+      <c r="K79">
         <f t="shared" si="6"/>
-        <v>0.1328</v>
-      </c>
-      <c r="K8" s="2">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80">
+        <v>129</v>
+      </c>
+      <c r="E80" t="s">
+        <v>388</v>
+      </c>
+      <c r="F80" t="s">
+        <v>412</v>
+      </c>
+      <c r="G80">
+        <v>25</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="I80">
+        <v>8</v>
+      </c>
+      <c r="J80">
+        <v>18</v>
+      </c>
+      <c r="K80">
         <f t="shared" si="6"/>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="L8" s="2">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <v>130</v>
+      </c>
+      <c r="E81" t="s">
+        <v>389</v>
+      </c>
+      <c r="F81" t="s">
+        <v>413</v>
+      </c>
+      <c r="G81">
+        <v>25</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="I81">
+        <v>8</v>
+      </c>
+      <c r="J81">
+        <v>18</v>
+      </c>
+      <c r="K81">
         <f t="shared" si="6"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="6"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="6"/>
-        <v>0.17</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="6"/>
-        <v>0.18200000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" ref="F9:O9" si="7">F22*$F$32</f>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="7"/>
-        <v>4.6980000000000001E-2</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="7"/>
-        <v>5.5960000000000003E-2</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="7"/>
-        <v>6.1939999999999995E-2</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="7"/>
-        <v>6.6400000000000001E-2</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="7"/>
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="7"/>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="7"/>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="7"/>
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="7"/>
-        <v>9.1000000000000011E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" ref="F10:O10" si="8">F23*$F$29</f>
-        <v>2E-3</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="8"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="8"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="8"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="8"/>
-        <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="8"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" si="8"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="8"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="8"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" si="8"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" ref="F11:O11" si="9">F23*$F$30</f>
-        <v>1.5E-3</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="9"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="9"/>
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="9"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="9"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" si="9"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" si="9"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="9"/>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="O11" s="3">
-        <f t="shared" si="9"/>
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" ref="F12:O12" si="10">F23*$F$31</f>
-        <v>1E-3</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="10"/>
-        <v>2E-3</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="10"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="10"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="10"/>
-        <v>5.000000000000001E-3</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="10"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" si="10"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="10"/>
-        <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="10"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="O12" s="3">
-        <f t="shared" si="10"/>
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" ref="F13:O13" si="11">F23*$F$32</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="11"/>
-        <v>1E-3</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="11"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="11"/>
-        <v>2E-3</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="11"/>
-        <v>2.5000000000000005E-3</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="11"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L13" s="3">
-        <f t="shared" si="11"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" si="11"/>
-        <v>5.000000000000001E-3</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" si="11"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O13" s="3">
-        <f t="shared" si="11"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" ref="F14:O14" si="12">F24*$F$29</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="12"/>
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="12"/>
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="12"/>
-        <v>2.3999999999999998E-4</v>
-      </c>
-      <c r="J14" s="2">
-        <f>J24*$F$29</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="K14" s="2">
-        <f>K24*$F$29</f>
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="L14" s="2">
-        <f>L24*$F$29</f>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="12"/>
-        <v>2E-3</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="12"/>
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="12"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" ref="F15:O15" si="13">F24*$F$30</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="13"/>
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H15" s="2">
-        <f>H24*$F$30</f>
-        <v>1.2E-4</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="13"/>
-        <v>1.7999999999999998E-4</v>
-      </c>
-      <c r="J15" s="2">
-        <f>J24*$F$30</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="K15" s="2">
-        <f>K24*$F$30</f>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="L15" s="2">
-        <f>L24*$F$30</f>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="13"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="13"/>
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="13"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2">
-        <f>F24*$F$31</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <f>G24*$F$31</f>
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="H16" s="2">
-        <f>H24*$F$31</f>
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="I16" s="2">
-        <f>I24*$F$31</f>
-        <v>1.1999999999999999E-4</v>
-      </c>
-      <c r="J16" s="2">
-        <f>J24*F31</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="K16" s="2">
-        <f>K24*$F$31</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="L16" s="2">
-        <f>L24*$F$31</f>
-        <v>6.0000000000000006E-4</v>
-      </c>
-      <c r="M16" s="2">
-        <f>M24*$F$31</f>
-        <v>1E-3</v>
-      </c>
-      <c r="N16" s="2">
-        <f>N24*$F$31</f>
-        <v>1.4000000000000002E-3</v>
-      </c>
-      <c r="O16" s="2">
-        <f>O24*$F$31</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2">
-        <f>F24*$F$32</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <f>G24*$F$32</f>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H17" s="2">
-        <f>H24*$F$32</f>
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="I17" s="2">
-        <f>I24*$F$32</f>
-        <v>5.9999999999999995E-5</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" ref="J17" si="14">J24*F32</f>
-        <v>1E-4</v>
-      </c>
-      <c r="K17" s="2">
-        <f>K24*$F$32</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="L17" s="2">
-        <f>L24*$F$32</f>
-        <v>3.0000000000000003E-4</v>
-      </c>
-      <c r="M17" s="2">
-        <f>M24*$F$32</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="N17" s="2">
-        <f>N24*$F$32</f>
-        <v>7.000000000000001E-4</v>
-      </c>
-      <c r="O17" s="2">
-        <f>O24*$F$32</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F19" s="2">
-        <f t="shared" ref="F19:O19" si="15">SUM(F2:F18)</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <f>SUM(H2:H18)</f>
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="15"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="J19" s="2">
-        <f>SUM(J2:J18)</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
-        <f>SUM(K2:K18)</f>
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <f>SUM(L2:L18)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="M19" s="2">
-        <f>SUM(M2:M18)</f>
-        <v>1</v>
-      </c>
-      <c r="N19" s="2">
-        <f>SUM(N2:N18)</f>
-        <v>1</v>
-      </c>
-      <c r="O19" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="N21" s="2">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.4698</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.55959999999999999</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.61939999999999995</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="J23" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H24" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="I24" s="2">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="K24" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="L24" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M24" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N24" s="2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" ref="F26:O26" si="16">SUM(F21:F24)</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="2">
-        <f>SUM(K21:K24)</f>
-        <v>1</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="M26" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="O26" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E28" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E29" s="1">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="G29" s="2">
-        <f>F29*$G$33</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="H29" s="4">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E30" s="1">
-        <v>3</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G30" s="2">
-        <f>F30*$G$33</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H30" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E31" s="1">
-        <v>2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G31" s="2">
-        <f>F31*$G$33</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H31" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G32" s="2">
-        <f>F32*$G$33</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H32" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F33" s="2">
-        <f>SUM(F29:F32)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="H33" s="4">
-        <f>SUM(H29:H32)</f>
-        <v>1E-3</v>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <f>SUM(I2:I81)</f>
+        <v>333</v>
+      </c>
+      <c r="J82">
+        <f>SUM(J2:J81)</f>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <f>I82/24</f>
+        <v>13.875</v>
+      </c>
+      <c r="J84">
+        <f>J82/I84</f>
+        <v>50.738738738738739</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16209,4 +19493,1284 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DDB2AE-5599-4543-81C7-777464B5EF86}">
+  <dimension ref="A1:O33"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="10" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="18.625" customWidth="1"/>
+    <col min="13" max="13" width="17.625" customWidth="1"/>
+    <col min="14" max="14" width="19.25" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:O2" si="0">F21*$F$29</f>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.124</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10720000000000002</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" si="0"/>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" si="0"/>
+        <v>3.32E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:O3" si="1">F21*$F$30</f>
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.156</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1275</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.108</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="1"/>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="1"/>
+        <v>6.2099999999999995E-2</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="1"/>
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4900000000000002E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:O4" si="2">F21*$F$31</f>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="2"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="2"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <f>K21*$F$31</f>
+        <v>5.3600000000000009E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="2"/>
+        <v>1.66E-2</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:O5" si="3">F21*$F$32</f>
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="3"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="3"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="K5" s="3">
+        <f>K21*$F$32</f>
+        <v>2.6800000000000004E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>2.07E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
+        <v>1.4499999999999999E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="3"/>
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:O6" si="4">F22*$F$29</f>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.18792</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.22384000000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24775999999999998</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.2656</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.34</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.36400000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7:O7" si="5">F22*$F$30</f>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14093999999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.16788</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.18581999999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19920000000000002</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.21</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.24</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.255</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:O8" si="6">F22*$F$31</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="6"/>
+        <v>9.3960000000000002E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11192000000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.12387999999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.1328</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.17</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.18200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:O9" si="7">F22*$F$32</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="7"/>
+        <v>4.6980000000000001E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="7"/>
+        <v>5.5960000000000003E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="7"/>
+        <v>6.1939999999999995E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="7"/>
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="7"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="7"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="7"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="7"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="7"/>
+        <v>9.1000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10:O10" si="8">F23*$F$29</f>
+        <v>2E-3</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="8"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="8"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="8"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="8"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="8"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="8"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="8"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ref="F11:O11" si="9">F23*$F$30</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="9"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="9"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="9"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="9"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="9"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="9"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="9"/>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:O12" si="10">F23*$F$31</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="10"/>
+        <v>2E-3</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="10"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="10"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="10"/>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="10"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="10"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="10"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ref="F13:O13" si="11">F23*$F$32</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="11"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="11"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="11"/>
+        <v>2E-3</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="11"/>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="11"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="11"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="11"/>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="11"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="11"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ref="F14:O14" si="12">F24*$F$29</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="12"/>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="12"/>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="12"/>
+        <v>2.3999999999999998E-4</v>
+      </c>
+      <c r="J14" s="2">
+        <f>J24*$F$29</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K14" s="2">
+        <f>K24*$F$29</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="L14" s="2">
+        <f>L24*$F$29</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="12"/>
+        <v>2E-3</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="12"/>
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="12"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" ref="F15:O15" si="13">F24*$F$30</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="13"/>
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="H15" s="2">
+        <f>H24*$F$30</f>
+        <v>1.2E-4</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="13"/>
+        <v>1.7999999999999998E-4</v>
+      </c>
+      <c r="J15" s="2">
+        <f>J24*$F$30</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K15" s="2">
+        <f>K24*$F$30</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="L15" s="2">
+        <f>L24*$F$30</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="13"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="13"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <f>F24*$F$31</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f>G24*$F$31</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="H16" s="2">
+        <f>H24*$F$31</f>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="I16" s="2">
+        <f>I24*$F$31</f>
+        <v>1.1999999999999999E-4</v>
+      </c>
+      <c r="J16" s="2">
+        <f>J24*F31</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K16" s="2">
+        <f>K24*$F$31</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L16" s="2">
+        <f>L24*$F$31</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="M16" s="2">
+        <f>M24*$F$31</f>
+        <v>1E-3</v>
+      </c>
+      <c r="N16" s="2">
+        <f>N24*$F$31</f>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="O16" s="2">
+        <f>O24*$F$31</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <f>F24*$F$32</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <f>G24*$F$32</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H17" s="2">
+        <f>H24*$F$32</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="I17" s="2">
+        <f>I24*$F$32</f>
+        <v>5.9999999999999995E-5</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" ref="J17" si="14">J24*F32</f>
+        <v>1E-4</v>
+      </c>
+      <c r="K17" s="2">
+        <f>K24*$F$32</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L17" s="2">
+        <f>L24*$F$32</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="M17" s="2">
+        <f>M24*$F$32</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N17" s="2">
+        <f>N24*$F$32</f>
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="O17" s="2">
+        <f>O24*$F$32</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F19" s="2">
+        <f t="shared" ref="F19:O19" si="15">SUM(F2:F18)</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <f>SUM(H2:H18)</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="15"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="J19" s="2">
+        <f>SUM(J2:J18)</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <f>SUM(K2:K18)</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <f>SUM(L2:L18)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M19" s="2">
+        <f>SUM(M2:M18)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <f>SUM(N2:N18)</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="N21" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.4698</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.61939999999999995</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I24" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L24" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M24" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N24" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" ref="F26:O26" si="16">SUM(F21:F24)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <f>SUM(K21:K24)</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E28" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G29" s="2">
+        <f>F29*$G$33</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H29" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="2">
+        <f>F30*$G$33</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="2">
+        <f>F31*$G$33</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="2">
+        <f>F32*$G$33</f>
+        <v>1E-4</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F33" s="2">
+        <f>SUM(F29:F32)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H33" s="4">
+        <f>SUM(H29:H32)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1424BD-9855-4B3F-BBC9-6F3F28BCB015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7955D739-F1B3-4B04-8152-60D73781C352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="426">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1638,6 +1638,36 @@
   <si>
     <t>2주년 상점
 보상 교환에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon132</t>
+  </si>
+  <si>
+    <t>weapon133</t>
+  </si>
+  <si>
+    <t>천귀사신의 검</t>
+  </si>
+  <si>
+    <t>천귀사신의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마영독군의 낫</t>
+  </si>
+  <si>
+    <t>마영독군의 낫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+천귀사신에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+마영독군에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2102,11 +2132,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF133"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K127" sqref="K127"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15425,14 +15455,214 @@
       </c>
       <c r="AD133" s="12">
         <f>IFERROR(VLOOKUP(A133,TransBalance!D:J,6,FALSE),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE133" s="12">
         <v>76</v>
       </c>
       <c r="AF133" s="12">
         <f>IFERROR(VLOOKUP(A133,TransBalance!D:J,7,FALSE),0)/100</f>
-        <v>0</v>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>418</v>
+      </c>
+      <c r="C134" t="s">
+        <v>421</v>
+      </c>
+      <c r="D134">
+        <v>29</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134">
+        <v>1.2</v>
+      </c>
+      <c r="G134">
+        <v>100</v>
+      </c>
+      <c r="H134">
+        <v>199</v>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134" s="6">
+        <v>61</v>
+      </c>
+      <c r="U134" s="7">
+        <v>46</v>
+      </c>
+      <c r="V134" s="7">
+        <v>260000</v>
+      </c>
+      <c r="W134" s="7">
+        <v>46</v>
+      </c>
+      <c r="X134" s="7">
+        <v>260000</v>
+      </c>
+      <c r="Y134" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z134" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA134" s="14">
+        <v>2400000000000</v>
+      </c>
+      <c r="AB134" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC134" s="12">
+        <v>131</v>
+      </c>
+      <c r="AD134" s="12">
+        <f>IFERROR(VLOOKUP(A134,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE134" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF134" s="12">
+        <f>IFERROR(VLOOKUP(A134,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>419</v>
+      </c>
+      <c r="C135" t="s">
+        <v>423</v>
+      </c>
+      <c r="D135">
+        <v>29</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+      <c r="F135">
+        <v>1.2</v>
+      </c>
+      <c r="G135">
+        <v>100</v>
+      </c>
+      <c r="H135">
+        <v>200</v>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135" s="6">
+        <v>62</v>
+      </c>
+      <c r="U135" s="7">
+        <v>46</v>
+      </c>
+      <c r="V135" s="7">
+        <v>260000</v>
+      </c>
+      <c r="W135" s="7">
+        <v>46</v>
+      </c>
+      <c r="X135" s="7">
+        <v>260000</v>
+      </c>
+      <c r="Y135" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z135" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA135" s="14">
+        <v>2400000000000</v>
+      </c>
+      <c r="AB135" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC135" s="12">
+        <v>132</v>
+      </c>
+      <c r="AD135" s="12">
+        <f>IFERROR(VLOOKUP(A135,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE135" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF135" s="12">
+        <f>IFERROR(VLOOKUP(A135,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -15445,10 +15675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A82B52C-5217-4EE5-B1F1-6C2A12A8616B}">
-  <dimension ref="C1:P84"/>
+  <dimension ref="C1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="O91" sqref="O91"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16195,7 +16425,7 @@
         <v>2</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J12:J75" si="4">H19*2+I19*(H19-1)</f>
+        <f t="shared" ref="J19:J36" si="4">H19*2+I19*(H19-1)</f>
         <v>4</v>
       </c>
       <c r="K19">
@@ -18143,22 +18373,115 @@
       </c>
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>81</v>
+      </c>
+      <c r="D82">
+        <v>131</v>
+      </c>
+      <c r="E82" t="s">
+        <v>390</v>
+      </c>
+      <c r="F82" t="s">
+        <v>385</v>
+      </c>
+      <c r="G82">
+        <v>25</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ref="H82:H83" si="7">G82/10</f>
+        <v>2.5</v>
+      </c>
       <c r="I82">
-        <f>SUM(I2:I81)</f>
+        <v>8</v>
+      </c>
+      <c r="J82">
+        <v>18</v>
+      </c>
+      <c r="K82">
+        <f t="shared" ref="K82:K83" si="8">J82/I82</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>82</v>
+      </c>
+      <c r="D83">
+        <v>132</v>
+      </c>
+      <c r="E83" t="s">
+        <v>418</v>
+      </c>
+      <c r="F83" t="s">
+        <v>420</v>
+      </c>
+      <c r="G83">
+        <v>25</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="I83">
+        <v>8</v>
+      </c>
+      <c r="J83">
+        <v>18</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="8"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>83</v>
+      </c>
+      <c r="D84">
+        <v>133</v>
+      </c>
+      <c r="E84" t="s">
+        <v>419</v>
+      </c>
+      <c r="F84" t="s">
+        <v>422</v>
+      </c>
+      <c r="G84">
+        <v>25</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ref="H84" si="9">G84/10</f>
+        <v>2.5</v>
+      </c>
+      <c r="I84">
+        <v>8</v>
+      </c>
+      <c r="J84">
+        <v>18</v>
+      </c>
+      <c r="K84">
+        <f t="shared" ref="K84" si="10">J84/I84</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <f>SUM($I$2:$I$81)</f>
         <v>333</v>
       </c>
-      <c r="J82">
-        <f>SUM(J2:J81)</f>
+      <c r="J91">
+        <f>SUM($J$2:$J$81)</f>
         <v>704</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I84">
-        <f>I82/24</f>
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <f>I91/24</f>
         <v>13.875</v>
       </c>
-      <c r="J84">
-        <f>J82/I84</f>
+      <c r="J93">
+        <f>J91/I93</f>
         <v>50.738738738738739</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7955D739-F1B3-4B04-8152-60D73781C352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF4F577-7170-43AC-AD54-FD50620BCE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="429">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1668,6 +1668,18 @@
   <si>
     <t>현상수배
 마영독군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon134</t>
+  </si>
+  <si>
+    <t>현상수배
+독왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독왕의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2132,11 +2144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H134" sqref="H134"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15665,6 +15677,106 @@
         <v>0.18</v>
       </c>
     </row>
+    <row r="136" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>426</v>
+      </c>
+      <c r="C136" t="s">
+        <v>428</v>
+      </c>
+      <c r="D136">
+        <v>29</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136">
+        <v>1.2</v>
+      </c>
+      <c r="G136">
+        <v>100</v>
+      </c>
+      <c r="H136">
+        <v>203</v>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136" s="6">
+        <v>63</v>
+      </c>
+      <c r="U136" s="7">
+        <v>46</v>
+      </c>
+      <c r="V136" s="7">
+        <v>280000</v>
+      </c>
+      <c r="W136" s="7">
+        <v>46</v>
+      </c>
+      <c r="X136" s="7">
+        <v>280000</v>
+      </c>
+      <c r="Y136" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z136" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA136" s="14">
+        <v>2600000000000</v>
+      </c>
+      <c r="AB136" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC136" s="12">
+        <v>133</v>
+      </c>
+      <c r="AD136" s="12">
+        <f>IFERROR(VLOOKUP(A136,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE136" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF136" s="12">
+        <f>IFERROR(VLOOKUP(A136,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AA86" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15678,7 +15790,7 @@
   <dimension ref="C1:P93"/>
   <sheetViews>
     <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18451,7 +18563,7 @@
         <v>25</v>
       </c>
       <c r="H84">
-        <f t="shared" ref="H84" si="9">G84/10</f>
+        <f t="shared" ref="H84:H85" si="9">G84/10</f>
         <v>2.5</v>
       </c>
       <c r="I84">
@@ -18461,7 +18573,38 @@
         <v>18</v>
       </c>
       <c r="K84">
-        <f t="shared" ref="K84" si="10">J84/I84</f>
+        <f t="shared" ref="K84:K85" si="10">J84/I84</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="D85">
+        <v>134</v>
+      </c>
+      <c r="E85" t="s">
+        <v>426</v>
+      </c>
+      <c r="F85" t="s">
+        <v>428</v>
+      </c>
+      <c r="G85">
+        <v>25</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="I85">
+        <v>8</v>
+      </c>
+      <c r="J85">
+        <v>18</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="10"/>
         <v>2.25</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF4F577-7170-43AC-AD54-FD50620BCE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7343A681-42C5-4E5C-9094-8C91888E6FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="435">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1680,6 +1680,30 @@
   </si>
   <si>
     <t>독왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon135</t>
+  </si>
+  <si>
+    <t>weapon136</t>
+  </si>
+  <si>
+    <t>백수뇌군의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌제의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+백수뇌군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+뇌제에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2144,11 +2168,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF136"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15777,6 +15801,206 @@
         <v>0.18</v>
       </c>
     </row>
+    <row r="137" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>429</v>
+      </c>
+      <c r="C137" t="s">
+        <v>431</v>
+      </c>
+      <c r="D137">
+        <v>29</v>
+      </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
+      <c r="F137">
+        <v>1.2</v>
+      </c>
+      <c r="G137">
+        <v>100</v>
+      </c>
+      <c r="H137">
+        <v>205</v>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137" s="6">
+        <v>64</v>
+      </c>
+      <c r="U137" s="7">
+        <v>46</v>
+      </c>
+      <c r="V137" s="7">
+        <v>300000</v>
+      </c>
+      <c r="W137" s="7">
+        <v>46</v>
+      </c>
+      <c r="X137" s="7">
+        <v>300000</v>
+      </c>
+      <c r="Y137" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z137" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA137" s="14">
+        <v>2800000000000</v>
+      </c>
+      <c r="AB137" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC137" s="12">
+        <v>134</v>
+      </c>
+      <c r="AD137" s="12">
+        <f>IFERROR(VLOOKUP(A137,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE137" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF137" s="12">
+        <f>IFERROR(VLOOKUP(A137,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>430</v>
+      </c>
+      <c r="C138" t="s">
+        <v>432</v>
+      </c>
+      <c r="D138">
+        <v>29</v>
+      </c>
+      <c r="E138">
+        <v>4</v>
+      </c>
+      <c r="F138">
+        <v>1.2</v>
+      </c>
+      <c r="G138">
+        <v>100</v>
+      </c>
+      <c r="H138">
+        <v>207</v>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138" s="6">
+        <v>65</v>
+      </c>
+      <c r="U138" s="7">
+        <v>46</v>
+      </c>
+      <c r="V138" s="7">
+        <v>300000</v>
+      </c>
+      <c r="W138" s="7">
+        <v>46</v>
+      </c>
+      <c r="X138" s="7">
+        <v>300000</v>
+      </c>
+      <c r="Y138" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z138" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA138" s="14">
+        <v>2800000000000</v>
+      </c>
+      <c r="AB138" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="AC138" s="12">
+        <v>135</v>
+      </c>
+      <c r="AD138" s="12">
+        <f>IFERROR(VLOOKUP(A138,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE138" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF138" s="12">
+        <f>IFERROR(VLOOKUP(A138,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AA86" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15790,7 +16014,7 @@
   <dimension ref="C1:P93"/>
   <sheetViews>
     <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18605,6 +18829,68 @@
       </c>
       <c r="K85">
         <f t="shared" si="10"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>85</v>
+      </c>
+      <c r="D86">
+        <v>135</v>
+      </c>
+      <c r="E86" t="s">
+        <v>429</v>
+      </c>
+      <c r="F86" t="s">
+        <v>431</v>
+      </c>
+      <c r="G86">
+        <v>25</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ref="H86:H87" si="11">G86/10</f>
+        <v>2.5</v>
+      </c>
+      <c r="I86">
+        <v>8</v>
+      </c>
+      <c r="J86">
+        <v>18</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ref="K86:K87" si="12">J86/I86</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>86</v>
+      </c>
+      <c r="D87">
+        <v>136</v>
+      </c>
+      <c r="E87" t="s">
+        <v>430</v>
+      </c>
+      <c r="F87" t="s">
+        <v>432</v>
+      </c>
+      <c r="G87">
+        <v>25</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="I87">
+        <v>8</v>
+      </c>
+      <c r="J87">
+        <v>18</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="12"/>
         <v>2.25</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7343A681-42C5-4E5C-9094-8C91888E6FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EDF86D-193A-4316-9E7F-58E783AFF461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="438">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1704,6 +1704,19 @@
   <si>
     <t>현상수배
 뇌제에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑묘살수의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+흑묘살수에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon137</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2168,11 +2181,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15287,6 +15300,7 @@
         <v>414</v>
       </c>
       <c r="AC131" s="12">
+        <f>ROW()-2</f>
         <v>129</v>
       </c>
       <c r="AD131" s="12">
@@ -15387,6 +15401,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
+        <f t="shared" ref="AC132:AC139" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15487,7 +15502,8 @@
         <v>417</v>
       </c>
       <c r="AC133" s="12">
-        <v>94</v>
+        <f t="shared" si="0"/>
+        <v>131</v>
       </c>
       <c r="AD133" s="12">
         <f>IFERROR(VLOOKUP(A133,TransBalance!D:J,6,FALSE),0)</f>
@@ -15587,7 +15603,8 @@
         <v>424</v>
       </c>
       <c r="AC134" s="12">
-        <v>131</v>
+        <f t="shared" si="0"/>
+        <v>132</v>
       </c>
       <c r="AD134" s="12">
         <f>IFERROR(VLOOKUP(A134,TransBalance!D:J,6,FALSE),0)</f>
@@ -15603,10 +15620,12 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
+        <f>ROW()-2</f>
         <v>133</v>
       </c>
-      <c r="B135" t="s">
-        <v>419</v>
+      <c r="B135" t="str">
+        <f>"weapon"&amp;ROW()-2</f>
+        <v>weapon133</v>
       </c>
       <c r="C135" t="s">
         <v>423</v>
@@ -15687,7 +15706,8 @@
         <v>425</v>
       </c>
       <c r="AC135" s="12">
-        <v>132</v>
+        <f t="shared" si="0"/>
+        <v>133</v>
       </c>
       <c r="AD135" s="12">
         <f>IFERROR(VLOOKUP(A135,TransBalance!D:J,6,FALSE),0)</f>
@@ -15703,10 +15723,12 @@
     </row>
     <row r="136" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A136">
+        <f>ROW()-2</f>
         <v>134</v>
       </c>
-      <c r="B136" t="s">
-        <v>426</v>
+      <c r="B136" t="str">
+        <f>"weapon"&amp;ROW()-2</f>
+        <v>weapon134</v>
       </c>
       <c r="C136" t="s">
         <v>428</v>
@@ -15787,7 +15809,8 @@
         <v>427</v>
       </c>
       <c r="AC136" s="12">
-        <v>133</v>
+        <f t="shared" si="0"/>
+        <v>134</v>
       </c>
       <c r="AD136" s="12">
         <f>IFERROR(VLOOKUP(A136,TransBalance!D:J,6,FALSE),0)</f>
@@ -15803,10 +15826,12 @@
     </row>
     <row r="137" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A137">
+        <f>ROW()-2</f>
         <v>135</v>
       </c>
-      <c r="B137" t="s">
-        <v>429</v>
+      <c r="B137" t="str">
+        <f>"weapon"&amp;ROW()-2</f>
+        <v>weapon135</v>
       </c>
       <c r="C137" t="s">
         <v>431</v>
@@ -15887,7 +15912,8 @@
         <v>433</v>
       </c>
       <c r="AC137" s="12">
-        <v>134</v>
+        <f t="shared" si="0"/>
+        <v>135</v>
       </c>
       <c r="AD137" s="12">
         <f>IFERROR(VLOOKUP(A137,TransBalance!D:J,6,FALSE),0)</f>
@@ -15903,10 +15929,12 @@
     </row>
     <row r="138" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A138">
+        <f>ROW()-2</f>
         <v>136</v>
       </c>
-      <c r="B138" t="s">
-        <v>430</v>
+      <c r="B138" t="str">
+        <f>"weapon"&amp;ROW()-2</f>
+        <v>weapon136</v>
       </c>
       <c r="C138" t="s">
         <v>432</v>
@@ -15987,7 +16015,8 @@
         <v>434</v>
       </c>
       <c r="AC138" s="12">
-        <v>135</v>
+        <f t="shared" si="0"/>
+        <v>136</v>
       </c>
       <c r="AD138" s="12">
         <f>IFERROR(VLOOKUP(A138,TransBalance!D:J,6,FALSE),0)</f>
@@ -15998,6 +16027,109 @@
       </c>
       <c r="AF138" s="12">
         <f>IFERROR(VLOOKUP(A138,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <f>ROW()-2</f>
+        <v>137</v>
+      </c>
+      <c r="B139" t="str">
+        <f>"weapon"&amp;ROW()-2</f>
+        <v>weapon137</v>
+      </c>
+      <c r="C139" t="s">
+        <v>435</v>
+      </c>
+      <c r="D139">
+        <v>29</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+      <c r="F139">
+        <v>1.2</v>
+      </c>
+      <c r="G139">
+        <v>100</v>
+      </c>
+      <c r="H139">
+        <v>209</v>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+      <c r="T139" s="6">
+        <v>66</v>
+      </c>
+      <c r="U139" s="7">
+        <v>46</v>
+      </c>
+      <c r="V139" s="7">
+        <v>320000</v>
+      </c>
+      <c r="W139" s="7">
+        <v>46</v>
+      </c>
+      <c r="X139" s="7">
+        <v>320000</v>
+      </c>
+      <c r="Y139" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z139" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA139" s="14">
+        <v>3000000000000</v>
+      </c>
+      <c r="AB139" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC139" s="12">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="AD139" s="12">
+        <f>IFERROR(VLOOKUP(A139,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE139" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF139" s="12">
+        <f>IFERROR(VLOOKUP(A139,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.18</v>
       </c>
     </row>
@@ -16013,8 +16145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A82B52C-5217-4EE5-B1F1-6C2A12A8616B}">
   <dimension ref="C1:P93"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18891,6 +19023,37 @@
       </c>
       <c r="K87">
         <f t="shared" si="12"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>87</v>
+      </c>
+      <c r="D88">
+        <v>137</v>
+      </c>
+      <c r="E88" t="s">
+        <v>437</v>
+      </c>
+      <c r="F88" t="s">
+        <v>435</v>
+      </c>
+      <c r="G88">
+        <v>25</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ref="H88" si="13">G88/10</f>
+        <v>2.5</v>
+      </c>
+      <c r="I88">
+        <v>8</v>
+      </c>
+      <c r="J88">
+        <v>18</v>
+      </c>
+      <c r="K88">
+        <f t="shared" ref="K88" si="14">J88/I88</f>
         <v>2.25</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EDF86D-193A-4316-9E7F-58E783AFF461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930BF1F4-0F72-40D9-87F0-11D4F10E3007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="442">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1717,6 +1717,22 @@
   </si>
   <si>
     <t>weapon137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인 삼대장의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon138</t>
+  </si>
+  <si>
+    <t>삼천왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인계
+삼천왕에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2181,11 +2197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF139"/>
+  <dimension ref="A1:AF140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
+      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15401,7 +15417,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC139" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC140" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15620,11 +15636,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A135:A140" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f>"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B140" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -15723,11 +15739,11 @@
     </row>
     <row r="136" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A136">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
       <c r="B136" t="str">
-        <f>"weapon"&amp;ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>weapon134</v>
       </c>
       <c r="C136" t="s">
@@ -15826,11 +15842,11 @@
     </row>
     <row r="137" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A137">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="B137" t="str">
-        <f>"weapon"&amp;ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>weapon135</v>
       </c>
       <c r="C137" t="s">
@@ -15929,11 +15945,11 @@
     </row>
     <row r="138" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A138">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="B138" t="str">
-        <f>"weapon"&amp;ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>weapon136</v>
       </c>
       <c r="C138" t="s">
@@ -16032,11 +16048,11 @@
     </row>
     <row r="139" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A139">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>137</v>
       </c>
       <c r="B139" t="str">
-        <f>"weapon"&amp;ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>weapon137</v>
       </c>
       <c r="C139" t="s">
@@ -16130,6 +16146,109 @@
       </c>
       <c r="AF139" s="12">
         <f>IFERROR(VLOOKUP(A139,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon138</v>
+      </c>
+      <c r="C140" t="s">
+        <v>440</v>
+      </c>
+      <c r="D140">
+        <v>30</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+      <c r="F140">
+        <v>1.2</v>
+      </c>
+      <c r="G140">
+        <v>100</v>
+      </c>
+      <c r="H140">
+        <v>211</v>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140" s="6">
+        <v>67</v>
+      </c>
+      <c r="U140" s="7">
+        <v>46</v>
+      </c>
+      <c r="V140" s="7">
+        <v>340000</v>
+      </c>
+      <c r="W140" s="7">
+        <v>46</v>
+      </c>
+      <c r="X140" s="7">
+        <v>340000</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z140" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA140" s="14">
+        <v>3200000000000</v>
+      </c>
+      <c r="AB140" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC140" s="12">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="AD140" s="12">
+        <f>IFERROR(VLOOKUP(A140,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE140" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF140" s="12">
+        <f>IFERROR(VLOOKUP(A140,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.18</v>
       </c>
     </row>
@@ -16145,8 +16264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A82B52C-5217-4EE5-B1F1-6C2A12A8616B}">
   <dimension ref="C1:P93"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19043,7 +19162,7 @@
         <v>25</v>
       </c>
       <c r="H88">
-        <f t="shared" ref="H88" si="13">G88/10</f>
+        <f t="shared" ref="H88:H89" si="13">G88/10</f>
         <v>2.5</v>
       </c>
       <c r="I88">
@@ -19053,7 +19172,38 @@
         <v>18</v>
       </c>
       <c r="K88">
-        <f t="shared" ref="K88" si="14">J88/I88</f>
+        <f t="shared" ref="K88:K89" si="14">J88/I88</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>88</v>
+      </c>
+      <c r="D89">
+        <v>138</v>
+      </c>
+      <c r="E89" t="s">
+        <v>439</v>
+      </c>
+      <c r="F89" t="s">
+        <v>438</v>
+      </c>
+      <c r="G89">
+        <v>25</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="I89">
+        <v>8</v>
+      </c>
+      <c r="J89">
+        <v>18</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="14"/>
         <v>2.25</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930BF1F4-0F72-40D9-87F0-11D4F10E3007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9193D06B-0B52-43D6-B2A3-8DAAB77467DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="446">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1733,6 +1733,22 @@
   <si>
     <t>용인계
 삼천왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon139</t>
+  </si>
+  <si>
+    <t>장군의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용자매의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인계
+용자매에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2197,11 +2213,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF140"/>
+  <dimension ref="A1:AF141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
+      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15417,7 +15433,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC140" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC141" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15636,11 +15652,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A140" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A141" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B140" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B141" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -16249,6 +16265,109 @@
       </c>
       <c r="AF140" s="12">
         <f>IFERROR(VLOOKUP(A140,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon139</v>
+      </c>
+      <c r="C141" t="s">
+        <v>444</v>
+      </c>
+      <c r="D141">
+        <v>30</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+      <c r="F141">
+        <v>1.2</v>
+      </c>
+      <c r="G141">
+        <v>100</v>
+      </c>
+      <c r="H141">
+        <v>213</v>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141" s="6">
+        <v>68</v>
+      </c>
+      <c r="U141" s="7">
+        <v>46</v>
+      </c>
+      <c r="V141" s="7">
+        <v>360000</v>
+      </c>
+      <c r="W141" s="7">
+        <v>46</v>
+      </c>
+      <c r="X141" s="7">
+        <v>360000</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z141" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA141" s="14">
+        <v>3400000000000</v>
+      </c>
+      <c r="AB141" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="AC141" s="12">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="AD141" s="12">
+        <f>IFERROR(VLOOKUP(A141,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE141" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF141" s="12">
+        <f>IFERROR(VLOOKUP(A141,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.18</v>
       </c>
     </row>
@@ -16264,8 +16383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A82B52C-5217-4EE5-B1F1-6C2A12A8616B}">
   <dimension ref="C1:P93"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19204,6 +19323,37 @@
       </c>
       <c r="K89">
         <f t="shared" si="14"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>89</v>
+      </c>
+      <c r="D90">
+        <v>139</v>
+      </c>
+      <c r="E90" t="s">
+        <v>442</v>
+      </c>
+      <c r="F90" t="s">
+        <v>443</v>
+      </c>
+      <c r="G90">
+        <v>25</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ref="H90" si="15">G90/10</f>
+        <v>2.5</v>
+      </c>
+      <c r="I90">
+        <v>8</v>
+      </c>
+      <c r="J90">
+        <v>18</v>
+      </c>
+      <c r="K90">
+        <f t="shared" ref="K90" si="16">J90/I90</f>
         <v>2.25</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9193D06B-0B52-43D6-B2A3-8DAAB77467DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45773BE5-CBD6-4656-9313-16855404DD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="449">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1750,6 +1750,18 @@
     <t>용인계
 용자매에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용술사의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인계
+용술사에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon140</t>
   </si>
 </sst>
 </file>
@@ -2213,11 +2225,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF141"/>
+  <dimension ref="A1:AF142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
+      <selection pane="bottomLeft" activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15433,7 +15445,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC141" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC142" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15652,11 +15664,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A141" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A142" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B141" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B142" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -16368,6 +16380,109 @@
       </c>
       <c r="AF141" s="12">
         <f>IFERROR(VLOOKUP(A141,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon140</v>
+      </c>
+      <c r="C142" t="s">
+        <v>446</v>
+      </c>
+      <c r="D142">
+        <v>30</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+      <c r="F142">
+        <v>1.2</v>
+      </c>
+      <c r="G142">
+        <v>100</v>
+      </c>
+      <c r="H142">
+        <v>215</v>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142" s="6">
+        <v>69</v>
+      </c>
+      <c r="U142" s="7">
+        <v>46</v>
+      </c>
+      <c r="V142" s="7">
+        <v>380000</v>
+      </c>
+      <c r="W142" s="7">
+        <v>46</v>
+      </c>
+      <c r="X142" s="7">
+        <v>380000</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z142" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA142" s="14">
+        <v>3600000000000</v>
+      </c>
+      <c r="AB142" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC142" s="12">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="AD142" s="12">
+        <f>IFERROR(VLOOKUP(A142,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE142" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF142" s="12">
+        <f>IFERROR(VLOOKUP(A142,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.18</v>
       </c>
     </row>
@@ -16381,10 +16496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A82B52C-5217-4EE5-B1F1-6C2A12A8616B}">
-  <dimension ref="C1:P93"/>
+  <dimension ref="C1:P94"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19343,7 +19458,7 @@
         <v>25</v>
       </c>
       <c r="H90">
-        <f t="shared" ref="H90" si="15">G90/10</f>
+        <f t="shared" ref="H90:H91" si="15">G90/10</f>
         <v>2.5</v>
       </c>
       <c r="I90">
@@ -19353,27 +19468,58 @@
         <v>18</v>
       </c>
       <c r="K90">
-        <f t="shared" ref="K90" si="16">J90/I90</f>
+        <f t="shared" ref="K90:K91" si="16">J90/I90</f>
         <v>2.25</v>
       </c>
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>90</v>
+      </c>
+      <c r="D91">
+        <v>140</v>
+      </c>
+      <c r="E91" t="s">
+        <v>448</v>
+      </c>
+      <c r="F91" t="s">
+        <v>446</v>
+      </c>
+      <c r="G91">
+        <v>25</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="15"/>
+        <v>2.5</v>
+      </c>
       <c r="I91">
+        <v>8</v>
+      </c>
+      <c r="J91">
+        <v>18</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="16"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I92">
         <f>SUM($I$2:$I$81)</f>
         <v>333</v>
       </c>
-      <c r="J91">
+      <c r="J92">
         <f>SUM($J$2:$J$81)</f>
         <v>704</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I93">
-        <f>I91/24</f>
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <f>I92/24</f>
         <v>13.875</v>
       </c>
-      <c r="J93">
-        <f>J91/I93</f>
+      <c r="J94">
+        <f>J92/I94</f>
         <v>50.738738738738739</v>
       </c>
     </row>
@@ -19387,8 +19533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D4B6AA-F00E-4050-9C5D-AD132116734E}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection sqref="A1:O33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45773BE5-CBD6-4656-9313-16855404DD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D940E6D-CF0F-4900-80DE-EB99C4B4899A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="452">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1762,6 +1762,18 @@
   </si>
   <si>
     <t>weapon140</t>
+  </si>
+  <si>
+    <t>용무제의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon141</t>
+  </si>
+  <si>
+    <t>용인계
+용무제에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2225,11 +2237,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF142"/>
+  <dimension ref="A1:AF143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A142" sqref="A142"/>
+      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15445,7 +15457,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC142" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC143" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15664,11 +15676,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A142" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A143" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B142" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B143" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -16483,6 +16495,109 @@
       </c>
       <c r="AF142" s="12">
         <f>IFERROR(VLOOKUP(A142,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon141</v>
+      </c>
+      <c r="C143" t="s">
+        <v>449</v>
+      </c>
+      <c r="D143">
+        <v>30</v>
+      </c>
+      <c r="E143">
+        <v>4</v>
+      </c>
+      <c r="F143">
+        <v>1.2</v>
+      </c>
+      <c r="G143">
+        <v>100</v>
+      </c>
+      <c r="H143">
+        <v>217</v>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143" s="6">
+        <v>70</v>
+      </c>
+      <c r="U143" s="7">
+        <v>46</v>
+      </c>
+      <c r="V143" s="7">
+        <v>400000</v>
+      </c>
+      <c r="W143" s="7">
+        <v>46</v>
+      </c>
+      <c r="X143" s="7">
+        <v>400000</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z143" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA143" s="14">
+        <v>3800000000000</v>
+      </c>
+      <c r="AB143" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC143" s="12">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="AD143" s="12">
+        <f>IFERROR(VLOOKUP(A143,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE143" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF143" s="12">
+        <f>IFERROR(VLOOKUP(A143,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.18</v>
       </c>
     </row>
@@ -16496,10 +16611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A82B52C-5217-4EE5-B1F1-6C2A12A8616B}">
-  <dimension ref="C1:P94"/>
+  <dimension ref="C1:P95"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19458,7 +19573,7 @@
         <v>25</v>
       </c>
       <c r="H90">
-        <f t="shared" ref="H90:H91" si="15">G90/10</f>
+        <f t="shared" ref="H90:H92" si="15">G90/10</f>
         <v>2.5</v>
       </c>
       <c r="I90">
@@ -19468,7 +19583,7 @@
         <v>18</v>
       </c>
       <c r="K90">
-        <f t="shared" ref="K90:K91" si="16">J90/I90</f>
+        <f t="shared" ref="K90:K92" si="16">J90/I90</f>
         <v>2.25</v>
       </c>
     </row>
@@ -19504,22 +19619,53 @@
       </c>
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>91</v>
+      </c>
+      <c r="D92">
+        <v>141</v>
+      </c>
+      <c r="E92" t="s">
+        <v>450</v>
+      </c>
+      <c r="F92" t="s">
+        <v>449</v>
+      </c>
+      <c r="G92">
+        <v>25</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="15"/>
+        <v>2.5</v>
+      </c>
       <c r="I92">
+        <v>8</v>
+      </c>
+      <c r="J92">
+        <v>18</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="16"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I93">
         <f>SUM($I$2:$I$81)</f>
         <v>333</v>
       </c>
-      <c r="J92">
+      <c r="J93">
         <f>SUM($J$2:$J$81)</f>
         <v>704</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I94">
-        <f>I92/24</f>
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <f>I93/24</f>
         <v>13.875</v>
       </c>
-      <c r="J94">
-        <f>J92/I94</f>
+      <c r="J95">
+        <f>J93/I95</f>
         <v>50.738738738738739</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D940E6D-CF0F-4900-80DE-EB99C4B4899A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E1A703-1678-4E35-9EE4-D4F0215CAED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="459">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1773,6 +1773,36 @@
   <si>
     <t>용인계
 용무제에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑룡신의 좌검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑룡신의 우검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡신의 좌검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡신의 우검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무대회
+비무상점에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인계
+용신에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1869,7 +1899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1920,6 +1950,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2237,11 +2276,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF143"/>
+  <dimension ref="A1:AF148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15457,7 +15496,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC143" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC148" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15676,11 +15715,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A143" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A148" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B143" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B148" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -16599,6 +16638,521 @@
       <c r="AF143" s="12">
         <f>IFERROR(VLOOKUP(A143,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon142</v>
+      </c>
+      <c r="C144" t="s">
+        <v>452</v>
+      </c>
+      <c r="D144">
+        <v>30</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+      <c r="F144">
+        <v>1.2</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>219</v>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144" s="6">
+        <v>0</v>
+      </c>
+      <c r="U144" s="7">
+        <v>46</v>
+      </c>
+      <c r="V144" s="7">
+        <v>420000</v>
+      </c>
+      <c r="W144" s="7">
+        <v>46</v>
+      </c>
+      <c r="X144" s="7">
+        <v>420000</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z144" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA144" s="14">
+        <v>4000000000000</v>
+      </c>
+      <c r="AB144" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC144" s="12">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="AD144" s="12">
+        <f>IFERROR(VLOOKUP(A144,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE144" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF144" s="12">
+        <f>IFERROR(VLOOKUP(A144,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon143</v>
+      </c>
+      <c r="C145" t="s">
+        <v>453</v>
+      </c>
+      <c r="D145">
+        <v>30</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+      <c r="F145">
+        <v>1.2</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>220</v>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145" s="6">
+        <v>0</v>
+      </c>
+      <c r="U145" s="7">
+        <v>46</v>
+      </c>
+      <c r="V145" s="7">
+        <v>420000</v>
+      </c>
+      <c r="W145" s="7">
+        <v>46</v>
+      </c>
+      <c r="X145" s="7">
+        <v>420000</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z145" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA145" s="14">
+        <v>4000000000000</v>
+      </c>
+      <c r="AB145" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC145" s="12">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="AD145" s="12">
+        <f>IFERROR(VLOOKUP(A145,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE145" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF145" s="12">
+        <f>IFERROR(VLOOKUP(A145,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon144</v>
+      </c>
+      <c r="C146" t="s">
+        <v>454</v>
+      </c>
+      <c r="D146">
+        <v>30</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>1.2</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>221</v>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146" s="6">
+        <v>0</v>
+      </c>
+      <c r="U146" s="7">
+        <v>46</v>
+      </c>
+      <c r="V146" s="7">
+        <v>420000</v>
+      </c>
+      <c r="W146" s="7">
+        <v>46</v>
+      </c>
+      <c r="X146" s="7">
+        <v>420000</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z146" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA146" s="14">
+        <v>4000000000000</v>
+      </c>
+      <c r="AB146" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC146" s="12">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="AD146" s="12">
+        <f>IFERROR(VLOOKUP(A146,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE146" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF146" s="12">
+        <f>IFERROR(VLOOKUP(A146,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon145</v>
+      </c>
+      <c r="C147" t="s">
+        <v>455</v>
+      </c>
+      <c r="D147">
+        <v>30</v>
+      </c>
+      <c r="E147">
+        <v>4</v>
+      </c>
+      <c r="F147">
+        <v>1.2</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>222</v>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147" s="6">
+        <v>0</v>
+      </c>
+      <c r="U147" s="7">
+        <v>46</v>
+      </c>
+      <c r="V147" s="7">
+        <v>420000</v>
+      </c>
+      <c r="W147" s="7">
+        <v>46</v>
+      </c>
+      <c r="X147" s="7">
+        <v>420000</v>
+      </c>
+      <c r="Y147" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z147" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA147" s="14">
+        <v>4000000000000</v>
+      </c>
+      <c r="AB147" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC147" s="12">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="AD147" s="12">
+        <f>IFERROR(VLOOKUP(A147,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE147" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF147" s="12">
+        <f>IFERROR(VLOOKUP(A147,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon146</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D148" s="1">
+        <v>18</v>
+      </c>
+      <c r="E148" s="1">
+        <v>4</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G148" s="1">
+        <v>100</v>
+      </c>
+      <c r="H148" s="1">
+        <v>223</v>
+      </c>
+      <c r="I148" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J148" s="1">
+        <v>0</v>
+      </c>
+      <c r="K148" s="1">
+        <v>0</v>
+      </c>
+      <c r="L148" s="1">
+        <v>0</v>
+      </c>
+      <c r="M148" s="1">
+        <v>0</v>
+      </c>
+      <c r="N148" s="1">
+        <v>0</v>
+      </c>
+      <c r="O148" s="1">
+        <v>0</v>
+      </c>
+      <c r="P148" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="1">
+        <v>0</v>
+      </c>
+      <c r="R148" s="1">
+        <v>0</v>
+      </c>
+      <c r="S148" s="1">
+        <v>0</v>
+      </c>
+      <c r="T148" s="18">
+        <v>0</v>
+      </c>
+      <c r="U148" s="19">
+        <v>0</v>
+      </c>
+      <c r="V148" s="19">
+        <v>0</v>
+      </c>
+      <c r="W148" s="19">
+        <v>0</v>
+      </c>
+      <c r="X148" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y148" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z148" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA148" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB148" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC148" s="12">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="AD148" s="12">
+        <f>IFERROR(VLOOKUP(A148,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE148" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF148" s="12">
+        <f>IFERROR(VLOOKUP(A148,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E1A703-1678-4E35-9EE4-D4F0215CAED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB0B97-EB0A-47CA-9DB5-7EF9B816FA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="468">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1803,6 +1803,43 @@
   <si>
     <t>용인계
 용신에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑해태자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광해태자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon142</t>
+  </si>
+  <si>
+    <t>weapon143</t>
+  </si>
+  <si>
+    <t>용궁
+흑해태자에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁
+광해태자에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑해태자의 부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 이벤트
+크리스마스 출석체크로 획득가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2276,11 +2313,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF148"/>
+  <dimension ref="A1:AF151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB151" sqref="AB151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15496,7 +15533,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC148" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC150" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15715,11 +15752,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A148" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A151" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B148" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B151" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -17152,6 +17189,315 @@
       </c>
       <c r="AF148" s="12">
         <f>IFERROR(VLOOKUP(A148,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon147</v>
+      </c>
+      <c r="C149" t="s">
+        <v>466</v>
+      </c>
+      <c r="D149">
+        <v>31</v>
+      </c>
+      <c r="E149">
+        <v>4</v>
+      </c>
+      <c r="F149">
+        <v>1.2</v>
+      </c>
+      <c r="G149">
+        <v>100</v>
+      </c>
+      <c r="H149">
+        <v>225</v>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149" s="6">
+        <v>71</v>
+      </c>
+      <c r="U149" s="7">
+        <v>46</v>
+      </c>
+      <c r="V149" s="7">
+        <v>440000</v>
+      </c>
+      <c r="W149" s="7">
+        <v>46</v>
+      </c>
+      <c r="X149" s="7">
+        <v>440000</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z149" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA149" s="14">
+        <v>4200000000000</v>
+      </c>
+      <c r="AB149" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC149" s="12">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="AD149" s="12">
+        <f>IFERROR(VLOOKUP(A149,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE149" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF149" s="12">
+        <f>IFERROR(VLOOKUP(A149,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon148</v>
+      </c>
+      <c r="C150" t="s">
+        <v>460</v>
+      </c>
+      <c r="D150">
+        <v>31</v>
+      </c>
+      <c r="E150">
+        <v>4</v>
+      </c>
+      <c r="F150">
+        <v>1.2</v>
+      </c>
+      <c r="G150">
+        <v>100</v>
+      </c>
+      <c r="H150">
+        <v>226</v>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150" s="6">
+        <v>72</v>
+      </c>
+      <c r="U150" s="7">
+        <v>46</v>
+      </c>
+      <c r="V150" s="7">
+        <v>440000</v>
+      </c>
+      <c r="W150" s="7">
+        <v>46</v>
+      </c>
+      <c r="X150" s="7">
+        <v>440000</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z150" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA150" s="14">
+        <v>4200000000000</v>
+      </c>
+      <c r="AB150" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="AC150" s="12">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="AD150" s="12">
+        <f>IFERROR(VLOOKUP(A150,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE150" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF150" s="12">
+        <f>IFERROR(VLOOKUP(A150,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:32" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon149</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D151" s="1">
+        <v>18</v>
+      </c>
+      <c r="E151" s="8">
+        <v>4</v>
+      </c>
+      <c r="F151" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G151" s="8">
+        <v>100</v>
+      </c>
+      <c r="H151" s="8">
+        <v>227</v>
+      </c>
+      <c r="I151" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151" s="8">
+        <v>0</v>
+      </c>
+      <c r="K151" s="8">
+        <v>0</v>
+      </c>
+      <c r="L151" s="8">
+        <v>0</v>
+      </c>
+      <c r="M151" s="8">
+        <v>0</v>
+      </c>
+      <c r="N151" s="8">
+        <v>0</v>
+      </c>
+      <c r="O151" s="8">
+        <v>0</v>
+      </c>
+      <c r="P151" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="8">
+        <v>0</v>
+      </c>
+      <c r="R151" s="8">
+        <v>0</v>
+      </c>
+      <c r="S151" s="8">
+        <v>0</v>
+      </c>
+      <c r="T151" s="9">
+        <v>0</v>
+      </c>
+      <c r="U151" s="10">
+        <v>0</v>
+      </c>
+      <c r="V151" s="10">
+        <v>0</v>
+      </c>
+      <c r="W151" s="10">
+        <v>0</v>
+      </c>
+      <c r="X151" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y151" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z151" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA151" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB151" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="AC151" s="12">
+        <f>ROW()-2</f>
+        <v>149</v>
+      </c>
+      <c r="AD151" s="12">
+        <f>IFERROR(VLOOKUP(A151,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE151" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF151" s="12">
+        <f>IFERROR(VLOOKUP(A151,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -17165,10 +17511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A82B52C-5217-4EE5-B1F1-6C2A12A8616B}">
-  <dimension ref="C1:P95"/>
+  <dimension ref="C1:P99"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20204,23 +20550,85 @@
       </c>
     </row>
     <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>92</v>
+      </c>
+      <c r="D93">
+        <v>147</v>
+      </c>
+      <c r="E93" t="s">
+        <v>461</v>
+      </c>
+      <c r="F93" t="s">
+        <v>459</v>
+      </c>
+      <c r="G93">
+        <v>25</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ref="H93:H94" si="17">G93/10</f>
+        <v>2.5</v>
+      </c>
       <c r="I93">
-        <f>SUM($I$2:$I$81)</f>
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="J93">
-        <f>SUM($J$2:$J$81)</f>
-        <v>704</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I95">
-        <f>I93/24</f>
-        <v>13.875</v>
-      </c>
-      <c r="J95">
-        <f>J93/I95</f>
-        <v>50.738738738738739</v>
+        <v>18</v>
+      </c>
+      <c r="K93">
+        <f t="shared" ref="K93:K94" si="18">J93/I93</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>93</v>
+      </c>
+      <c r="D94">
+        <v>148</v>
+      </c>
+      <c r="E94" t="s">
+        <v>462</v>
+      </c>
+      <c r="F94" t="s">
+        <v>460</v>
+      </c>
+      <c r="G94">
+        <v>25</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="I94">
+        <v>8</v>
+      </c>
+      <c r="J94">
+        <v>18</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="18"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <f>SUM($I$2:$I$95)</f>
+        <v>437</v>
+      </c>
+      <c r="J97">
+        <f>SUM($J$2:$J$95)</f>
+        <v>938</v>
+      </c>
+    </row>
+    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <f>I97/24</f>
+        <v>18.208333333333332</v>
+      </c>
+      <c r="J99">
+        <f>J97/I99</f>
+        <v>51.514874141876433</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB0B97-EB0A-47CA-9DB5-7EF9B816FA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C278ED3A-5203-4194-9A73-25561AEC5808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="474">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1841,6 +1841,30 @@
     <t>크리스마스 이벤트
 크리스마스 출석체크로 획득가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여울태자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가람태자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁
+여울태자에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁
+가람태자에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon144</t>
+  </si>
+  <si>
+    <t>weapon145</t>
   </si>
 </sst>
 </file>
@@ -2313,11 +2337,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF151"/>
+  <dimension ref="A1:AF153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB151" sqref="AB151"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15533,7 +15557,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC150" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC153" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15752,11 +15776,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A151" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A153" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B151" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B153" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -17499,6 +17523,212 @@
       <c r="AF151" s="12">
         <f>IFERROR(VLOOKUP(A151,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon150</v>
+      </c>
+      <c r="C152" t="s">
+        <v>468</v>
+      </c>
+      <c r="D152">
+        <v>31</v>
+      </c>
+      <c r="E152">
+        <v>4</v>
+      </c>
+      <c r="F152">
+        <v>1.2</v>
+      </c>
+      <c r="G152">
+        <v>100</v>
+      </c>
+      <c r="H152">
+        <v>231</v>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152" s="6">
+        <v>73</v>
+      </c>
+      <c r="U152" s="7">
+        <v>46</v>
+      </c>
+      <c r="V152" s="7">
+        <v>460000</v>
+      </c>
+      <c r="W152" s="7">
+        <v>46</v>
+      </c>
+      <c r="X152" s="7">
+        <v>460000</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z152" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA152" s="14">
+        <v>4400000000000</v>
+      </c>
+      <c r="AB152" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC152" s="12">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="AD152" s="12">
+        <f>IFERROR(VLOOKUP(A152,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE152" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF152" s="12">
+        <f>IFERROR(VLOOKUP(A152,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon151</v>
+      </c>
+      <c r="C153" t="s">
+        <v>469</v>
+      </c>
+      <c r="D153">
+        <v>31</v>
+      </c>
+      <c r="E153">
+        <v>4</v>
+      </c>
+      <c r="F153">
+        <v>1.2</v>
+      </c>
+      <c r="G153">
+        <v>100</v>
+      </c>
+      <c r="H153">
+        <v>232</v>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153" s="6">
+        <v>74</v>
+      </c>
+      <c r="U153" s="7">
+        <v>46</v>
+      </c>
+      <c r="V153" s="7">
+        <v>460000</v>
+      </c>
+      <c r="W153" s="7">
+        <v>46</v>
+      </c>
+      <c r="X153" s="7">
+        <v>460000</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z153" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA153" s="14">
+        <v>4400000000000</v>
+      </c>
+      <c r="AB153" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC153" s="12">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="AD153" s="12">
+        <f>IFERROR(VLOOKUP(A153,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE153" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF153" s="12">
+        <f>IFERROR(VLOOKUP(A153,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -17514,7 +17744,7 @@
   <dimension ref="C1:P99"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20611,24 +20841,86 @@
         <v>2.25</v>
       </c>
     </row>
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>94</v>
+      </c>
+      <c r="D95">
+        <v>150</v>
+      </c>
+      <c r="E95" t="s">
+        <v>472</v>
+      </c>
+      <c r="F95" t="s">
+        <v>468</v>
+      </c>
+      <c r="G95">
+        <v>25</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ref="H95:H96" si="19">G95/10</f>
+        <v>2.5</v>
+      </c>
+      <c r="I95">
+        <v>8</v>
+      </c>
+      <c r="J95">
+        <v>18</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ref="K95:K96" si="20">J95/I95</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>95</v>
+      </c>
+      <c r="D96">
+        <v>151</v>
+      </c>
+      <c r="E96" t="s">
+        <v>473</v>
+      </c>
+      <c r="F96" t="s">
+        <v>469</v>
+      </c>
+      <c r="G96">
+        <v>25</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+      <c r="I96">
+        <v>8</v>
+      </c>
+      <c r="J96">
+        <v>18</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="20"/>
+        <v>2.25</v>
+      </c>
+    </row>
     <row r="97" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I97">
         <f>SUM($I$2:$I$95)</f>
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="J97">
         <f>SUM($J$2:$J$95)</f>
-        <v>938</v>
+        <v>956</v>
       </c>
     </row>
     <row r="99" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I99">
         <f>I97/24</f>
-        <v>18.208333333333332</v>
+        <v>18.541666666666668</v>
       </c>
       <c r="J99">
         <f>J97/I99</f>
-        <v>51.514874141876433</v>
+        <v>51.559550561797749</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C278ED3A-5203-4194-9A73-25561AEC5808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4644435-C350-466B-8E2D-CB11FC76DD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="481">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1792,10 +1792,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>싸움왕의 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비무대회
 비무상점에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1865,6 +1861,38 @@
   </si>
   <si>
     <t>weapon145</t>
+  </si>
+  <si>
+    <t>비무신의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon146</t>
+  </si>
+  <si>
+    <t>weapon147</t>
+  </si>
+  <si>
+    <t>서해장군의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동해장군의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁
+서해장군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁
+동해장군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2337,11 +2365,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF153"/>
+  <dimension ref="A1:AF156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15557,7 +15585,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC153" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC156" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15776,11 +15804,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A153" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A156" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B153" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B156" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -16786,7 +16814,7 @@
         <v>4000000000000</v>
       </c>
       <c r="AB144" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AC144" s="12">
         <f t="shared" si="0"/>
@@ -16889,7 +16917,7 @@
         <v>4000000000000</v>
       </c>
       <c r="AB145" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AC145" s="12">
         <f t="shared" si="0"/>
@@ -16992,7 +17020,7 @@
         <v>4000000000000</v>
       </c>
       <c r="AB146" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AC146" s="12">
         <f t="shared" si="0"/>
@@ -17095,7 +17123,7 @@
         <v>4000000000000</v>
       </c>
       <c r="AB147" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AC147" s="12">
         <f t="shared" si="0"/>
@@ -17123,7 +17151,7 @@
         <v>weapon146</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="D148" s="1">
         <v>18</v>
@@ -17198,7 +17226,7 @@
         <v>10000</v>
       </c>
       <c r="AB148" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AC148" s="12">
         <f t="shared" si="0"/>
@@ -17226,7 +17254,7 @@
         <v>weapon147</v>
       </c>
       <c r="C149" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D149">
         <v>31</v>
@@ -17301,7 +17329,7 @@
         <v>4200000000000</v>
       </c>
       <c r="AB149" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AC149" s="12">
         <f t="shared" si="0"/>
@@ -17329,7 +17357,7 @@
         <v>weapon148</v>
       </c>
       <c r="C150" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D150">
         <v>31</v>
@@ -17404,7 +17432,7 @@
         <v>4200000000000</v>
       </c>
       <c r="AB150" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AC150" s="12">
         <f t="shared" si="0"/>
@@ -17432,7 +17460,7 @@
         <v>weapon149</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D151" s="1">
         <v>18</v>
@@ -17507,7 +17535,7 @@
         <v>10000</v>
       </c>
       <c r="AB151" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AC151" s="12">
         <f>ROW()-2</f>
@@ -17535,7 +17563,7 @@
         <v>weapon150</v>
       </c>
       <c r="C152" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D152">
         <v>31</v>
@@ -17610,7 +17638,7 @@
         <v>4400000000000</v>
       </c>
       <c r="AB152" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AC152" s="12">
         <f t="shared" si="0"/>
@@ -17638,7 +17666,7 @@
         <v>weapon151</v>
       </c>
       <c r="C153" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D153">
         <v>31</v>
@@ -17713,7 +17741,7 @@
         <v>4400000000000</v>
       </c>
       <c r="AB153" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AC153" s="12">
         <f t="shared" si="0"/>
@@ -17729,6 +17757,315 @@
       <c r="AF153" s="12">
         <f>IFERROR(VLOOKUP(A153,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon152</v>
+      </c>
+      <c r="C154" t="s">
+        <v>476</v>
+      </c>
+      <c r="D154">
+        <v>31</v>
+      </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
+      <c r="F154">
+        <v>1.2</v>
+      </c>
+      <c r="G154">
+        <v>100</v>
+      </c>
+      <c r="H154">
+        <v>235</v>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+      <c r="T154" s="6">
+        <v>75</v>
+      </c>
+      <c r="U154" s="7">
+        <v>46</v>
+      </c>
+      <c r="V154" s="7">
+        <v>480000</v>
+      </c>
+      <c r="W154" s="7">
+        <v>46</v>
+      </c>
+      <c r="X154" s="7">
+        <v>480000</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z154" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA154" s="14">
+        <v>4600000000000</v>
+      </c>
+      <c r="AB154" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="AC154" s="12">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="AD154" s="12">
+        <f>IFERROR(VLOOKUP(A154,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE154" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF154" s="12">
+        <f>IFERROR(VLOOKUP(A154,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon153</v>
+      </c>
+      <c r="C155" t="s">
+        <v>477</v>
+      </c>
+      <c r="D155">
+        <v>31</v>
+      </c>
+      <c r="E155">
+        <v>4</v>
+      </c>
+      <c r="F155">
+        <v>1.2</v>
+      </c>
+      <c r="G155">
+        <v>100</v>
+      </c>
+      <c r="H155">
+        <v>236</v>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>0</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155" s="6">
+        <v>76</v>
+      </c>
+      <c r="U155" s="7">
+        <v>46</v>
+      </c>
+      <c r="V155" s="7">
+        <v>480000</v>
+      </c>
+      <c r="W155" s="7">
+        <v>46</v>
+      </c>
+      <c r="X155" s="7">
+        <v>480000</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z155" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA155" s="14">
+        <v>4600000000000</v>
+      </c>
+      <c r="AB155" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="AC155" s="12">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="AD155" s="12">
+        <f>IFERROR(VLOOKUP(A155,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AE155" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF155" s="12">
+        <f>IFERROR(VLOOKUP(A155,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon154</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D156" s="1">
+        <v>18</v>
+      </c>
+      <c r="E156" s="1">
+        <v>4</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G156" s="1">
+        <v>100</v>
+      </c>
+      <c r="H156" s="1">
+        <v>223</v>
+      </c>
+      <c r="I156" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" s="1">
+        <v>0</v>
+      </c>
+      <c r="K156" s="1">
+        <v>0</v>
+      </c>
+      <c r="L156" s="1">
+        <v>0</v>
+      </c>
+      <c r="M156" s="1">
+        <v>0</v>
+      </c>
+      <c r="N156" s="1">
+        <v>0</v>
+      </c>
+      <c r="O156" s="1">
+        <v>0</v>
+      </c>
+      <c r="P156" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>0</v>
+      </c>
+      <c r="R156" s="1">
+        <v>0</v>
+      </c>
+      <c r="S156" s="1">
+        <v>0</v>
+      </c>
+      <c r="T156" s="18">
+        <v>0</v>
+      </c>
+      <c r="U156" s="19">
+        <v>0</v>
+      </c>
+      <c r="V156" s="19">
+        <v>0</v>
+      </c>
+      <c r="W156" s="19">
+        <v>0</v>
+      </c>
+      <c r="X156" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y156" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z156" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA156" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB156" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC156" s="12">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="AD156" s="12">
+        <f>IFERROR(VLOOKUP(A156,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE156" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF156" s="12">
+        <f>IFERROR(VLOOKUP(A156,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17741,10 +18078,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A82B52C-5217-4EE5-B1F1-6C2A12A8616B}">
-  <dimension ref="C1:P99"/>
+  <dimension ref="C1:P103"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20787,10 +21124,10 @@
         <v>147</v>
       </c>
       <c r="E93" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F93" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G93">
         <v>25</v>
@@ -20818,10 +21155,10 @@
         <v>148</v>
       </c>
       <c r="E94" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F94" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G94">
         <v>25</v>
@@ -20849,10 +21186,10 @@
         <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F95" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G95">
         <v>25</v>
@@ -20880,10 +21217,10 @@
         <v>151</v>
       </c>
       <c r="E96" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F96" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G96">
         <v>25</v>
@@ -20903,23 +21240,85 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>96</v>
+      </c>
+      <c r="D97">
+        <v>152</v>
+      </c>
+      <c r="E97" t="s">
+        <v>474</v>
+      </c>
+      <c r="F97" t="s">
+        <v>467</v>
+      </c>
+      <c r="G97">
+        <v>25</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ref="H97:H98" si="21">G97/10</f>
+        <v>2.5</v>
+      </c>
       <c r="I97">
+        <v>8</v>
+      </c>
+      <c r="J97">
+        <v>18</v>
+      </c>
+      <c r="K97">
+        <f t="shared" ref="K97:K98" si="22">J97/I97</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>97</v>
+      </c>
+      <c r="D98">
+        <v>153</v>
+      </c>
+      <c r="E98" t="s">
+        <v>475</v>
+      </c>
+      <c r="F98" t="s">
+        <v>468</v>
+      </c>
+      <c r="G98">
+        <v>25</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="21"/>
+        <v>2.5</v>
+      </c>
+      <c r="I98">
+        <v>8</v>
+      </c>
+      <c r="J98">
+        <v>18</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="22"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I101">
         <f>SUM($I$2:$I$95)</f>
         <v>445</v>
       </c>
-      <c r="J97">
+      <c r="J101">
         <f>SUM($J$2:$J$95)</f>
         <v>956</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I99">
-        <f>I97/24</f>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <f>I101/24</f>
         <v>18.541666666666668</v>
       </c>
-      <c r="J99">
-        <f>J97/I99</f>
+      <c r="J103">
+        <f>J101/I103</f>
         <v>51.559550561797749</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4644435-C350-466B-8E2D-CB11FC76DD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4348A50-5AAF-4D66-9416-F08DC5B26D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="485">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1892,6 +1892,24 @@
   </si>
   <si>
     <t>비무왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윷가락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁
+용왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윷놀이 이벤트
+완주 보상으로 획득가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2365,11 +2383,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF156"/>
+  <dimension ref="A1:AF158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB159" sqref="AB159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15585,7 +15603,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC156" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC158" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15804,11 +15822,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A156" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A158" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B156" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B158" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -18065,6 +18083,211 @@
       </c>
       <c r="AF156" s="12">
         <f>IFERROR(VLOOKUP(A156,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon155</v>
+      </c>
+      <c r="C157" t="s">
+        <v>481</v>
+      </c>
+      <c r="D157">
+        <v>31</v>
+      </c>
+      <c r="E157">
+        <v>4</v>
+      </c>
+      <c r="F157">
+        <v>1.2</v>
+      </c>
+      <c r="G157">
+        <v>100</v>
+      </c>
+      <c r="H157">
+        <v>239</v>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+      <c r="T157" s="6">
+        <v>77</v>
+      </c>
+      <c r="U157" s="7">
+        <v>46</v>
+      </c>
+      <c r="V157" s="7">
+        <v>500000</v>
+      </c>
+      <c r="W157" s="7">
+        <v>46</v>
+      </c>
+      <c r="X157" s="7">
+        <v>500000</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z157" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA157" s="14">
+        <v>4800000000000</v>
+      </c>
+      <c r="AB157" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC157" s="12">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="AD157" s="12">
+        <f>IFERROR(VLOOKUP(A157,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE157" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF157" s="12">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon156</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D158" s="1">
+        <v>18</v>
+      </c>
+      <c r="E158" s="1">
+        <v>4</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G158" s="1">
+        <v>100</v>
+      </c>
+      <c r="H158" s="1">
+        <v>223</v>
+      </c>
+      <c r="I158" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" s="1">
+        <v>0</v>
+      </c>
+      <c r="K158" s="1">
+        <v>0</v>
+      </c>
+      <c r="L158" s="1">
+        <v>0</v>
+      </c>
+      <c r="M158" s="1">
+        <v>0</v>
+      </c>
+      <c r="N158" s="1">
+        <v>0</v>
+      </c>
+      <c r="O158" s="1">
+        <v>0</v>
+      </c>
+      <c r="P158" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>0</v>
+      </c>
+      <c r="R158" s="1">
+        <v>0</v>
+      </c>
+      <c r="S158" s="1">
+        <v>0</v>
+      </c>
+      <c r="T158" s="18">
+        <v>0</v>
+      </c>
+      <c r="U158" s="19">
+        <v>0</v>
+      </c>
+      <c r="V158" s="19">
+        <v>0</v>
+      </c>
+      <c r="W158" s="19">
+        <v>0</v>
+      </c>
+      <c r="X158" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y158" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z158" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA158" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB158" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC158" s="12">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="AD158" s="12">
+        <f>IFERROR(VLOOKUP(A158,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE158" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF158" s="12">
+        <f>IFERROR(VLOOKUP(A158,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -18081,7 +18304,7 @@
   <dimension ref="C1:P103"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+      <selection activeCell="C99" sqref="C99:K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4348A50-5AAF-4D66-9416-F08DC5B26D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7398E454-A693-4082-98D6-0DE9F5E031AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="493">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1910,6 +1910,36 @@
   <si>
     <t>윷놀이 이벤트
 완주 보상으로 획득가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon157</t>
+  </si>
+  <si>
+    <t>무림0</t>
+  </si>
+  <si>
+    <t>weapon158</t>
+  </si>
+  <si>
+    <t>무림1</t>
+  </si>
+  <si>
+    <t>백의대군의 부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천세상제의 봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락
+백의대군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락
+천세상제에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2383,11 +2413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF158"/>
+  <dimension ref="A1:AF160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB159" sqref="AB159"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15603,7 +15633,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC158" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC160" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15822,11 +15852,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A158" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A160" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B158" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B160" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -18075,14 +18105,12 @@
         <v>154</v>
       </c>
       <c r="AD156" s="12">
-        <f>IFERROR(VLOOKUP(A156,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AE156" s="12">
         <v>76</v>
       </c>
       <c r="AF156" s="12">
-        <f>IFERROR(VLOOKUP(A156,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -18178,8 +18206,7 @@
         <v>155</v>
       </c>
       <c r="AD157" s="12">
-        <f>IFERROR(VLOOKUP(A157,TransBalance!D:J,6,FALSE),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE157" s="12">
         <v>76</v>
@@ -18287,8 +18314,209 @@
         <v>76</v>
       </c>
       <c r="AF158" s="12">
-        <f>IFERROR(VLOOKUP(A158,TransBalance!D:J,7,FALSE),0)/100</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon157</v>
+      </c>
+      <c r="C159" t="s">
+        <v>489</v>
+      </c>
+      <c r="D159">
+        <v>31</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
+      </c>
+      <c r="F159">
+        <v>1.2</v>
+      </c>
+      <c r="G159">
+        <v>100</v>
+      </c>
+      <c r="H159">
+        <v>241</v>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159" s="6">
+        <v>78</v>
+      </c>
+      <c r="U159" s="7">
+        <v>46</v>
+      </c>
+      <c r="V159" s="7">
+        <v>520000</v>
+      </c>
+      <c r="W159" s="7">
+        <v>46</v>
+      </c>
+      <c r="X159" s="7">
+        <v>520000</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z159" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA159" s="14">
+        <v>5000000000000</v>
+      </c>
+      <c r="AB159" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="AC159" s="12">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="AD159" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE159" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF159" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon158</v>
+      </c>
+      <c r="C160" t="s">
+        <v>490</v>
+      </c>
+      <c r="D160">
+        <v>31</v>
+      </c>
+      <c r="E160">
+        <v>4</v>
+      </c>
+      <c r="F160">
+        <v>1.2</v>
+      </c>
+      <c r="G160">
+        <v>100</v>
+      </c>
+      <c r="H160">
+        <v>242</v>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
+      <c r="T160" s="6">
+        <v>79</v>
+      </c>
+      <c r="U160" s="7">
+        <v>46</v>
+      </c>
+      <c r="V160" s="7">
+        <v>520000</v>
+      </c>
+      <c r="W160" s="7">
+        <v>46</v>
+      </c>
+      <c r="X160" s="7">
+        <v>520000</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z160" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA160" s="14">
+        <v>5000000000000</v>
+      </c>
+      <c r="AB160" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="AC160" s="12">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="AD160" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE160" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF160" s="12">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -18301,10 +18529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A82B52C-5217-4EE5-B1F1-6C2A12A8616B}">
-  <dimension ref="C1:P103"/>
+  <dimension ref="C1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99:K99"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21525,24 +21753,66 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I101">
-        <f>SUM($I$2:$I$95)</f>
-        <v>445</v>
-      </c>
-      <c r="J101">
-        <f>SUM($J$2:$J$95)</f>
-        <v>956</v>
-      </c>
-    </row>
-    <row r="103" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I103">
-        <f>I101/24</f>
-        <v>18.541666666666668</v>
-      </c>
-      <c r="J103">
-        <f>J101/I103</f>
-        <v>51.559550561797749</v>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>98</v>
+      </c>
+      <c r="D99">
+        <v>154</v>
+      </c>
+      <c r="E99" t="s">
+        <v>485</v>
+      </c>
+      <c r="F99" t="s">
+        <v>486</v>
+      </c>
+      <c r="G99">
+        <v>25</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ref="H99:H100" si="23">G99/10</f>
+        <v>2.5</v>
+      </c>
+      <c r="I99">
+        <v>10</v>
+      </c>
+      <c r="J99">
+        <v>25</v>
+      </c>
+      <c r="K99">
+        <f t="shared" ref="K99:K100" si="24">J99/I99</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>99</v>
+      </c>
+      <c r="D100">
+        <v>155</v>
+      </c>
+      <c r="E100" t="s">
+        <v>487</v>
+      </c>
+      <c r="F100" t="s">
+        <v>488</v>
+      </c>
+      <c r="G100">
+        <v>25</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
+      </c>
+      <c r="I100">
+        <v>10</v>
+      </c>
+      <c r="J100">
+        <v>25</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="24"/>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7398E454-A693-4082-98D6-0DE9F5E031AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8F8BD5-B508-4F7C-BD68-24064E722356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="498">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1940,6 +1940,28 @@
   <si>
     <t>극락
 천세상제에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천세왕후의 부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스도전
+무림에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락
+천세왕후에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남궁가주의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제갈가주의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2117,9 +2139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2157,7 +2179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2263,7 +2285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2405,7 +2427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2413,11 +2435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF160"/>
+  <dimension ref="A1:AF163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA161" sqref="AA161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15633,7 +15655,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC160" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC163" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15852,11 +15874,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A160" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A163" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B160" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B163" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -18330,7 +18352,7 @@
         <v>489</v>
       </c>
       <c r="D159">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E159">
         <v>4</v>
@@ -18431,7 +18453,7 @@
         <v>490</v>
       </c>
       <c r="D160">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E160">
         <v>4</v>
@@ -18517,6 +18539,313 @@
       </c>
       <c r="AF160" s="12">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon159</v>
+      </c>
+      <c r="C161" t="s">
+        <v>493</v>
+      </c>
+      <c r="D161">
+        <v>34</v>
+      </c>
+      <c r="E161">
+        <v>4</v>
+      </c>
+      <c r="F161">
+        <v>1.2</v>
+      </c>
+      <c r="G161">
+        <v>100</v>
+      </c>
+      <c r="H161">
+        <v>245</v>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <v>0</v>
+      </c>
+      <c r="T161" s="6">
+        <v>79</v>
+      </c>
+      <c r="U161" s="7">
+        <v>46</v>
+      </c>
+      <c r="V161" s="7">
+        <v>540000</v>
+      </c>
+      <c r="W161" s="7">
+        <v>46</v>
+      </c>
+      <c r="X161" s="7">
+        <v>540000</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z161" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA161" s="14">
+        <v>5200000000000</v>
+      </c>
+      <c r="AB161" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC161" s="12">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="AD161" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE161" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF161" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon160</v>
+      </c>
+      <c r="C162" t="s">
+        <v>496</v>
+      </c>
+      <c r="D162">
+        <v>35</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+      <c r="F162">
+        <v>1.2</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>246</v>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>0</v>
+      </c>
+      <c r="S162">
+        <v>0</v>
+      </c>
+      <c r="T162" s="6">
+        <v>0</v>
+      </c>
+      <c r="U162" s="7">
+        <v>46</v>
+      </c>
+      <c r="V162" s="7">
+        <v>540000</v>
+      </c>
+      <c r="W162" s="7">
+        <v>46</v>
+      </c>
+      <c r="X162" s="7">
+        <v>540000</v>
+      </c>
+      <c r="Y162" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z162" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA162" s="14">
+        <v>5200000000000</v>
+      </c>
+      <c r="AB162" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC162" s="12">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="AD162" s="12">
+        <f>IFERROR(VLOOKUP(A162,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE162" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF162" s="12">
+        <f>IFERROR(VLOOKUP(A162,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon161</v>
+      </c>
+      <c r="C163" t="s">
+        <v>497</v>
+      </c>
+      <c r="D163">
+        <v>35</v>
+      </c>
+      <c r="E163">
+        <v>4</v>
+      </c>
+      <c r="F163">
+        <v>1.2</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>247</v>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <v>0</v>
+      </c>
+      <c r="T163" s="6">
+        <v>0</v>
+      </c>
+      <c r="U163" s="7">
+        <v>46</v>
+      </c>
+      <c r="V163" s="7">
+        <v>540000</v>
+      </c>
+      <c r="W163" s="7">
+        <v>46</v>
+      </c>
+      <c r="X163" s="7">
+        <v>540000</v>
+      </c>
+      <c r="Y163" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z163" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA163" s="14">
+        <v>5200000000000</v>
+      </c>
+      <c r="AB163" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC163" s="12">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="AD163" s="12">
+        <f>IFERROR(VLOOKUP(A163,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE163" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF163" s="12">
+        <f>IFERROR(VLOOKUP(A163,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8F8BD5-B508-4F7C-BD68-24064E722356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B131B51-6D81-4E0F-99F7-B32AAA6AFBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="502">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1962,6 +1962,23 @@
   </si>
   <si>
     <t>제갈가주의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온화천왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사천당문의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모용가주의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락
+온화천왕에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2435,11 +2452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF163"/>
+  <dimension ref="A1:AF166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA161" sqref="AA161"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB170" sqref="AB170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15655,7 +15672,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC163" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC166" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15874,11 +15891,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A163" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A166" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B163" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B166" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -18845,6 +18862,314 @@
       </c>
       <c r="AF163" s="12">
         <f>IFERROR(VLOOKUP(A163,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon162</v>
+      </c>
+      <c r="C164" t="s">
+        <v>498</v>
+      </c>
+      <c r="D164">
+        <v>34</v>
+      </c>
+      <c r="E164">
+        <v>4</v>
+      </c>
+      <c r="F164">
+        <v>1.2</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>249</v>
+      </c>
+      <c r="I164" t="b">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
+      <c r="T164" s="6">
+        <v>0</v>
+      </c>
+      <c r="U164" s="7">
+        <v>46</v>
+      </c>
+      <c r="V164" s="7">
+        <v>560000</v>
+      </c>
+      <c r="W164" s="7">
+        <v>46</v>
+      </c>
+      <c r="X164" s="7">
+        <v>560000</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z164" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA164" s="14">
+        <v>5400000000000</v>
+      </c>
+      <c r="AB164" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC164" s="12">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="AD164" s="12">
+        <f>IFERROR(VLOOKUP(A164,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE164" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF164" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon163</v>
+      </c>
+      <c r="C165" t="s">
+        <v>499</v>
+      </c>
+      <c r="D165">
+        <v>35</v>
+      </c>
+      <c r="E165">
+        <v>4</v>
+      </c>
+      <c r="F165">
+        <v>1.2</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>250</v>
+      </c>
+      <c r="I165" t="b">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+      <c r="T165" s="6">
+        <v>0</v>
+      </c>
+      <c r="U165" s="7">
+        <v>46</v>
+      </c>
+      <c r="V165" s="7">
+        <v>560000</v>
+      </c>
+      <c r="W165" s="7">
+        <v>46</v>
+      </c>
+      <c r="X165" s="7">
+        <v>560000</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z165" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA165" s="14">
+        <v>5400000000000</v>
+      </c>
+      <c r="AB165" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC165" s="12">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="AD165" s="12">
+        <f>IFERROR(VLOOKUP(A165,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE165" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF165" s="12">
+        <f>IFERROR(VLOOKUP(A165,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon164</v>
+      </c>
+      <c r="C166" t="s">
+        <v>500</v>
+      </c>
+      <c r="D166">
+        <v>35</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
+      <c r="F166">
+        <v>1.2</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>251</v>
+      </c>
+      <c r="I166" t="b">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>0</v>
+      </c>
+      <c r="S166">
+        <v>0</v>
+      </c>
+      <c r="T166" s="6">
+        <v>0</v>
+      </c>
+      <c r="U166" s="7">
+        <v>46</v>
+      </c>
+      <c r="V166" s="7">
+        <v>560000</v>
+      </c>
+      <c r="W166" s="7">
+        <v>46</v>
+      </c>
+      <c r="X166" s="7">
+        <v>560000</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z166" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA166" s="14">
+        <v>5400000000000</v>
+      </c>
+      <c r="AB166" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC166" s="12">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="AD166" s="12">
+        <f>IFERROR(VLOOKUP(A166,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE166" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF166" s="12">
+        <f>IFERROR(VLOOKUP(A166,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B131B51-6D81-4E0F-99F7-B32AAA6AFBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115B7E90-806A-46B6-97CB-6E98B4569967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="506">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1979,6 +1979,23 @@
   <si>
     <t>극락
 온화천왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명상제의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소림나한의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북해빙궁의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락
+광명상제에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2452,11 +2469,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF166"/>
+  <dimension ref="A1:AF169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB170" sqref="AB170"/>
+      <selection pane="bottomLeft" activeCell="AA165" sqref="AA165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15672,7 +15689,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC166" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC169" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15891,11 +15908,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A166" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A169" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B166" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B169" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -18926,7 +18943,7 @@
         <v>0</v>
       </c>
       <c r="T164" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U164" s="7">
         <v>46</v>
@@ -18957,8 +18974,7 @@
         <v>162</v>
       </c>
       <c r="AD164" s="12">
-        <f>IFERROR(VLOOKUP(A164,TransBalance!D:J,6,FALSE),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE164" s="12">
         <v>76</v>
@@ -19059,14 +19075,12 @@
         <v>163</v>
       </c>
       <c r="AD165" s="12">
-        <f>IFERROR(VLOOKUP(A165,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AE165" s="12">
         <v>76</v>
       </c>
       <c r="AF165" s="12">
-        <f>IFERROR(VLOOKUP(A165,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -19162,14 +19176,315 @@
         <v>164</v>
       </c>
       <c r="AD166" s="12">
-        <f>IFERROR(VLOOKUP(A166,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AE166" s="12">
         <v>76</v>
       </c>
       <c r="AF166" s="12">
-        <f>IFERROR(VLOOKUP(A166,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon165</v>
+      </c>
+      <c r="C167" t="s">
+        <v>502</v>
+      </c>
+      <c r="D167">
+        <v>34</v>
+      </c>
+      <c r="E167">
+        <v>4</v>
+      </c>
+      <c r="F167">
+        <v>1.2</v>
+      </c>
+      <c r="G167">
+        <v>100</v>
+      </c>
+      <c r="H167">
+        <v>253</v>
+      </c>
+      <c r="I167" t="b">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <v>0</v>
+      </c>
+      <c r="T167" s="6">
+        <v>81</v>
+      </c>
+      <c r="U167" s="7">
+        <v>46</v>
+      </c>
+      <c r="V167" s="7">
+        <v>580000</v>
+      </c>
+      <c r="W167" s="7">
+        <v>46</v>
+      </c>
+      <c r="X167" s="7">
+        <v>580000</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z167" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA167" s="14">
+        <v>5600000000000</v>
+      </c>
+      <c r="AB167" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC167" s="12">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="AD167" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE167" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF167" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon166</v>
+      </c>
+      <c r="C168" t="s">
+        <v>503</v>
+      </c>
+      <c r="D168">
+        <v>35</v>
+      </c>
+      <c r="E168">
+        <v>4</v>
+      </c>
+      <c r="F168">
+        <v>1.2</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>254</v>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+      <c r="T168" s="6">
+        <v>0</v>
+      </c>
+      <c r="U168" s="7">
+        <v>46</v>
+      </c>
+      <c r="V168" s="7">
+        <v>580000</v>
+      </c>
+      <c r="W168" s="7">
+        <v>46</v>
+      </c>
+      <c r="X168" s="7">
+        <v>580000</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z168" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA168" s="14">
+        <v>5600000000000</v>
+      </c>
+      <c r="AB168" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC168" s="12">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="AD168" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE168" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF168" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon167</v>
+      </c>
+      <c r="C169" t="s">
+        <v>504</v>
+      </c>
+      <c r="D169">
+        <v>35</v>
+      </c>
+      <c r="E169">
+        <v>4</v>
+      </c>
+      <c r="F169">
+        <v>1.2</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>255</v>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+      <c r="T169" s="6">
+        <v>0</v>
+      </c>
+      <c r="U169" s="7">
+        <v>46</v>
+      </c>
+      <c r="V169" s="7">
+        <v>580000</v>
+      </c>
+      <c r="W169" s="7">
+        <v>46</v>
+      </c>
+      <c r="X169" s="7">
+        <v>580000</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z169" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA169" s="14">
+        <v>5600000000000</v>
+      </c>
+      <c r="AB169" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC169" s="12">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="AD169" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE169" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF169" s="12">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115B7E90-806A-46B6-97CB-6E98B4569967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D984E72-095C-4802-B146-68960C062786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -2471,9 +2471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AF169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA165" sqref="AA165"/>
+      <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18904,7 +18904,7 @@
         <v>1.2</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H164">
         <v>249</v>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D984E72-095C-4802-B146-68960C062786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11364CE7-74F5-473F-AE8B-7474CABA1908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="512">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1996,6 +1996,32 @@
   <si>
     <t>극락
 광명상제에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종남가주의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하북팽가의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수월경화 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락천왕의 부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락
+극락천왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별 임무
+누적 보상으로 획득가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2469,11 +2495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF169"/>
+  <dimension ref="A1:AF173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB174" sqref="AB174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15689,7 +15715,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC169" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC173" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15908,11 +15934,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A169" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A173" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B169" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B172" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -19485,6 +19511,410 @@
         <v>76</v>
       </c>
       <c r="AF169" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon168</v>
+      </c>
+      <c r="C170" t="s">
+        <v>509</v>
+      </c>
+      <c r="D170">
+        <v>34</v>
+      </c>
+      <c r="E170">
+        <v>4</v>
+      </c>
+      <c r="F170">
+        <v>1.2</v>
+      </c>
+      <c r="G170">
+        <v>100</v>
+      </c>
+      <c r="H170">
+        <v>257</v>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <v>0</v>
+      </c>
+      <c r="T170" s="6">
+        <v>82</v>
+      </c>
+      <c r="U170" s="7">
+        <v>46</v>
+      </c>
+      <c r="V170" s="7">
+        <v>600000</v>
+      </c>
+      <c r="W170" s="7">
+        <v>46</v>
+      </c>
+      <c r="X170" s="7">
+        <v>600000</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z170" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA170" s="14">
+        <v>5800000000000</v>
+      </c>
+      <c r="AB170" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC170" s="12">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="AD170" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE170" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF170" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon169</v>
+      </c>
+      <c r="C171" t="s">
+        <v>506</v>
+      </c>
+      <c r="D171">
+        <v>35</v>
+      </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
+      <c r="F171">
+        <v>1.2</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>258</v>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+      <c r="T171" s="6">
+        <v>0</v>
+      </c>
+      <c r="U171" s="7">
+        <v>46</v>
+      </c>
+      <c r="V171" s="7">
+        <v>600000</v>
+      </c>
+      <c r="W171" s="7">
+        <v>46</v>
+      </c>
+      <c r="X171" s="7">
+        <v>600000</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z171" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA171" s="14">
+        <v>5800000000000</v>
+      </c>
+      <c r="AB171" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC171" s="12">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="AD171" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE171" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF171" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon170</v>
+      </c>
+      <c r="C172" t="s">
+        <v>507</v>
+      </c>
+      <c r="D172">
+        <v>35</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+      <c r="F172">
+        <v>1.2</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>259</v>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>0</v>
+      </c>
+      <c r="S172">
+        <v>0</v>
+      </c>
+      <c r="T172" s="6">
+        <v>0</v>
+      </c>
+      <c r="U172" s="7">
+        <v>46</v>
+      </c>
+      <c r="V172" s="7">
+        <v>600000</v>
+      </c>
+      <c r="W172" s="7">
+        <v>46</v>
+      </c>
+      <c r="X172" s="7">
+        <v>600000</v>
+      </c>
+      <c r="Y172" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z172" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA172" s="14">
+        <v>5800000000000</v>
+      </c>
+      <c r="AB172" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC172" s="12">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="AD172" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE172" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF172" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="B173" t="str">
+        <f>"weapon"&amp;ROW()-2</f>
+        <v>weapon171</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D173" s="1">
+        <v>18</v>
+      </c>
+      <c r="E173" s="1">
+        <v>4</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G173" s="1">
+        <v>0</v>
+      </c>
+      <c r="H173" s="1">
+        <v>260</v>
+      </c>
+      <c r="I173" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" s="1">
+        <v>0</v>
+      </c>
+      <c r="K173" s="1">
+        <v>0</v>
+      </c>
+      <c r="L173" s="1">
+        <v>0</v>
+      </c>
+      <c r="M173" s="1">
+        <v>0</v>
+      </c>
+      <c r="N173" s="1">
+        <v>0</v>
+      </c>
+      <c r="O173" s="1">
+        <v>0</v>
+      </c>
+      <c r="P173" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="1">
+        <v>0</v>
+      </c>
+      <c r="R173" s="1">
+        <v>0</v>
+      </c>
+      <c r="S173" s="1">
+        <v>0</v>
+      </c>
+      <c r="T173" s="18">
+        <v>0</v>
+      </c>
+      <c r="U173" s="19">
+        <v>0</v>
+      </c>
+      <c r="V173" s="19">
+        <v>0</v>
+      </c>
+      <c r="W173" s="19">
+        <v>0</v>
+      </c>
+      <c r="X173" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y173" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z173" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA173" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB173" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC173" s="12">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="AD173" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE173" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF173" s="12">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11364CE7-74F5-473F-AE8B-7474CABA1908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF187119-B8E9-4A9F-8906-A076A6181B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="515">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2022,6 +2022,18 @@
   <si>
     <t>특별 임무
 누적 보상으로 획득가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무당가주의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설산가주의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용태자의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2495,11 +2507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF173"/>
+  <dimension ref="A1:AF176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB174" sqref="AB174"/>
+      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15715,7 +15727,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC173" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC176" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15934,11 +15946,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A173" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A176" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B172" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B175" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -19915,6 +19927,309 @@
         <v>76</v>
       </c>
       <c r="AF173" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon172</v>
+      </c>
+      <c r="C174" t="s">
+        <v>512</v>
+      </c>
+      <c r="D174">
+        <v>35</v>
+      </c>
+      <c r="E174">
+        <v>4</v>
+      </c>
+      <c r="F174">
+        <v>1.2</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>263</v>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <v>0</v>
+      </c>
+      <c r="T174" s="6">
+        <v>0</v>
+      </c>
+      <c r="U174" s="7">
+        <v>46</v>
+      </c>
+      <c r="V174" s="7">
+        <v>620000</v>
+      </c>
+      <c r="W174" s="7">
+        <v>46</v>
+      </c>
+      <c r="X174" s="7">
+        <v>620000</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z174" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA174" s="14">
+        <v>6000000000000</v>
+      </c>
+      <c r="AB174" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC174" s="12">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="AD174" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE174" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF174" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <f t="shared" si="1"/>
+        <v>173</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon173</v>
+      </c>
+      <c r="C175" t="s">
+        <v>513</v>
+      </c>
+      <c r="D175">
+        <v>35</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
+      </c>
+      <c r="F175">
+        <v>1.2</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>264</v>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175" s="6">
+        <v>0</v>
+      </c>
+      <c r="U175" s="7">
+        <v>46</v>
+      </c>
+      <c r="V175" s="7">
+        <v>620000</v>
+      </c>
+      <c r="W175" s="7">
+        <v>46</v>
+      </c>
+      <c r="X175" s="7">
+        <v>620000</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z175" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA175" s="14">
+        <v>6000000000000</v>
+      </c>
+      <c r="AB175" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC175" s="12">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="AD175" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE175" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF175" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="B176" t="str">
+        <f>"weapon"&amp;ROW()-2</f>
+        <v>weapon174</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D176" s="1">
+        <v>18</v>
+      </c>
+      <c r="E176" s="1">
+        <v>4</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G176" s="1">
+        <v>0</v>
+      </c>
+      <c r="H176" s="1">
+        <v>265</v>
+      </c>
+      <c r="I176" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" s="1">
+        <v>0</v>
+      </c>
+      <c r="K176" s="1">
+        <v>0</v>
+      </c>
+      <c r="L176" s="1">
+        <v>0</v>
+      </c>
+      <c r="M176" s="1">
+        <v>0</v>
+      </c>
+      <c r="N176" s="1">
+        <v>0</v>
+      </c>
+      <c r="O176" s="1">
+        <v>0</v>
+      </c>
+      <c r="P176" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="1">
+        <v>0</v>
+      </c>
+      <c r="R176" s="1">
+        <v>0</v>
+      </c>
+      <c r="S176" s="1">
+        <v>0</v>
+      </c>
+      <c r="T176" s="18">
+        <v>0</v>
+      </c>
+      <c r="U176" s="19">
+        <v>0</v>
+      </c>
+      <c r="V176" s="19">
+        <v>0</v>
+      </c>
+      <c r="W176" s="19">
+        <v>0</v>
+      </c>
+      <c r="X176" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y176" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z176" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA176" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB176" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC176" s="12">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="AD176" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE176" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF176" s="12">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF187119-B8E9-4A9F-8906-A076A6181B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4535D59F-6443-4709-BB0B-2C125A04CF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="520">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2034,6 +2034,27 @@
   </si>
   <si>
     <t>용태자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적월살수의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈마의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명월도령의 부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥 문지기의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥도
+지옥 문지기에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2507,11 +2528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF176"/>
+  <dimension ref="A1:AF180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15727,7 +15748,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC176" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC180" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15946,11 +15967,11 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A176" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A180" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B175" si="2">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B135:B177" si="2">"weapon"&amp;ROW()-2</f>
         <v>weapon133</v>
       </c>
       <c r="C135" t="s">
@@ -20231,6 +20252,410 @@
       </c>
       <c r="AF176" s="12">
         <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="2"/>
+        <v>weapon175</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D177" s="1">
+        <v>18</v>
+      </c>
+      <c r="E177" s="1">
+        <v>4</v>
+      </c>
+      <c r="F177" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G177" s="1">
+        <v>0</v>
+      </c>
+      <c r="H177" s="1">
+        <v>265</v>
+      </c>
+      <c r="I177" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" s="1">
+        <v>0</v>
+      </c>
+      <c r="K177" s="1">
+        <v>0</v>
+      </c>
+      <c r="L177" s="1">
+        <v>0</v>
+      </c>
+      <c r="M177" s="1">
+        <v>0</v>
+      </c>
+      <c r="N177" s="1">
+        <v>0</v>
+      </c>
+      <c r="O177" s="1">
+        <v>0</v>
+      </c>
+      <c r="P177" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q177" s="1">
+        <v>0</v>
+      </c>
+      <c r="R177" s="1">
+        <v>0</v>
+      </c>
+      <c r="S177" s="1">
+        <v>0</v>
+      </c>
+      <c r="T177" s="18">
+        <v>0</v>
+      </c>
+      <c r="U177" s="19">
+        <v>0</v>
+      </c>
+      <c r="V177" s="19">
+        <v>0</v>
+      </c>
+      <c r="W177" s="19">
+        <v>0</v>
+      </c>
+      <c r="X177" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y177" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z177" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA177" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB177" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC177" s="12">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="AD177" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE177" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF177" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" ref="B178:B179" si="3">"weapon"&amp;ROW()-2</f>
+        <v>weapon176</v>
+      </c>
+      <c r="C178" t="s">
+        <v>515</v>
+      </c>
+      <c r="D178">
+        <v>35</v>
+      </c>
+      <c r="E178">
+        <v>4</v>
+      </c>
+      <c r="F178">
+        <v>1.2</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>267</v>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178" s="6">
+        <v>0</v>
+      </c>
+      <c r="U178" s="7">
+        <v>46</v>
+      </c>
+      <c r="V178" s="7">
+        <v>640000</v>
+      </c>
+      <c r="W178" s="7">
+        <v>46</v>
+      </c>
+      <c r="X178" s="7">
+        <v>640000</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z178" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA178" s="14">
+        <v>6200000000000</v>
+      </c>
+      <c r="AB178" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC178" s="12">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="AD178" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE178" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF178" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="3"/>
+        <v>weapon177</v>
+      </c>
+      <c r="C179" t="s">
+        <v>516</v>
+      </c>
+      <c r="D179">
+        <v>35</v>
+      </c>
+      <c r="E179">
+        <v>4</v>
+      </c>
+      <c r="F179">
+        <v>1.2</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>268</v>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179" s="6">
+        <v>0</v>
+      </c>
+      <c r="U179" s="7">
+        <v>46</v>
+      </c>
+      <c r="V179" s="7">
+        <v>640000</v>
+      </c>
+      <c r="W179" s="7">
+        <v>46</v>
+      </c>
+      <c r="X179" s="7">
+        <v>640000</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z179" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA179" s="14">
+        <v>6200000000000</v>
+      </c>
+      <c r="AB179" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC179" s="12">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="AD179" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE179" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF179" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+      <c r="B180" t="str">
+        <f>"weapon"&amp;ROW()-2</f>
+        <v>weapon178</v>
+      </c>
+      <c r="C180" t="s">
+        <v>518</v>
+      </c>
+      <c r="D180">
+        <v>37</v>
+      </c>
+      <c r="E180">
+        <v>4</v>
+      </c>
+      <c r="F180">
+        <v>1.2</v>
+      </c>
+      <c r="G180">
+        <v>100</v>
+      </c>
+      <c r="H180">
+        <v>266</v>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180" s="6">
+        <v>83</v>
+      </c>
+      <c r="U180" s="7">
+        <v>46</v>
+      </c>
+      <c r="V180" s="7">
+        <v>640000</v>
+      </c>
+      <c r="W180" s="7">
+        <v>46</v>
+      </c>
+      <c r="X180" s="7">
+        <v>640000</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z180" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA180" s="14">
+        <v>6200000000000</v>
+      </c>
+      <c r="AB180" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC180" s="12">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="AD180" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE180" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF180" s="12">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -20245,8 +20670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A82B52C-5217-4EE5-B1F1-6C2A12A8616B}">
   <dimension ref="C1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4535D59F-6443-4709-BB0B-2C125A04CF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0379E640-6499-49F1-8B4A-1F57627A813E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="525">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2055,6 +2055,27 @@
   <si>
     <t>지옥도
 지옥 문지기에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적풍검객의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청풍검객의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진광대왕의 부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오조사의 부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥도
+진광대왕에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2528,11 +2549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF180"/>
+  <dimension ref="A1:AF184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15748,7 +15769,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC180" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC184" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15967,7 +15988,7 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A180" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A184" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
@@ -20656,6 +20677,410 @@
       </c>
       <c r="AF180" s="12">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="B181" t="str">
+        <f>"weapon"&amp;ROW()-2</f>
+        <v>weapon179</v>
+      </c>
+      <c r="C181" t="s">
+        <v>522</v>
+      </c>
+      <c r="D181">
+        <v>37</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
+      </c>
+      <c r="F181">
+        <v>1.2</v>
+      </c>
+      <c r="G181">
+        <v>100</v>
+      </c>
+      <c r="H181">
+        <v>270</v>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181" s="6">
+        <v>84</v>
+      </c>
+      <c r="U181" s="7">
+        <v>46</v>
+      </c>
+      <c r="V181" s="7">
+        <v>660000</v>
+      </c>
+      <c r="W181" s="7">
+        <v>46</v>
+      </c>
+      <c r="X181" s="7">
+        <v>660000</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z181" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA181" s="14">
+        <v>6400000000000</v>
+      </c>
+      <c r="AB181" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="AC181" s="12">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="AD181" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE181" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF181" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" ref="B182:B184" si="4">"weapon"&amp;ROW()-2</f>
+        <v>weapon180</v>
+      </c>
+      <c r="C182" t="s">
+        <v>520</v>
+      </c>
+      <c r="D182">
+        <v>35</v>
+      </c>
+      <c r="E182">
+        <v>4</v>
+      </c>
+      <c r="F182">
+        <v>1.2</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>271</v>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182" s="6">
+        <v>0</v>
+      </c>
+      <c r="U182" s="7">
+        <v>46</v>
+      </c>
+      <c r="V182" s="7">
+        <v>660000</v>
+      </c>
+      <c r="W182" s="7">
+        <v>46</v>
+      </c>
+      <c r="X182" s="7">
+        <v>660000</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z182" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA182" s="14">
+        <v>6400000000000</v>
+      </c>
+      <c r="AB182" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC182" s="12">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="AD182" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE182" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF182" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon181</v>
+      </c>
+      <c r="C183" t="s">
+        <v>521</v>
+      </c>
+      <c r="D183">
+        <v>35</v>
+      </c>
+      <c r="E183">
+        <v>4</v>
+      </c>
+      <c r="F183">
+        <v>1.2</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>272</v>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183" s="6">
+        <v>0</v>
+      </c>
+      <c r="U183" s="7">
+        <v>46</v>
+      </c>
+      <c r="V183" s="7">
+        <v>660000</v>
+      </c>
+      <c r="W183" s="7">
+        <v>46</v>
+      </c>
+      <c r="X183" s="7">
+        <v>660000</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z183" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA183" s="14">
+        <v>6400000000000</v>
+      </c>
+      <c r="AB183" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC183" s="12">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="AD183" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE183" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF183" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon182</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D184" s="1">
+        <v>18</v>
+      </c>
+      <c r="E184" s="1">
+        <v>4</v>
+      </c>
+      <c r="F184" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G184" s="1">
+        <v>0</v>
+      </c>
+      <c r="H184" s="1">
+        <v>265</v>
+      </c>
+      <c r="I184" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" s="1">
+        <v>0</v>
+      </c>
+      <c r="K184" s="1">
+        <v>0</v>
+      </c>
+      <c r="L184" s="1">
+        <v>0</v>
+      </c>
+      <c r="M184" s="1">
+        <v>0</v>
+      </c>
+      <c r="N184" s="1">
+        <v>0</v>
+      </c>
+      <c r="O184" s="1">
+        <v>0</v>
+      </c>
+      <c r="P184" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="1">
+        <v>0</v>
+      </c>
+      <c r="R184" s="1">
+        <v>0</v>
+      </c>
+      <c r="S184" s="1">
+        <v>0</v>
+      </c>
+      <c r="T184" s="18">
+        <v>0</v>
+      </c>
+      <c r="U184" s="19">
+        <v>0</v>
+      </c>
+      <c r="V184" s="19">
+        <v>0</v>
+      </c>
+      <c r="W184" s="19">
+        <v>0</v>
+      </c>
+      <c r="X184" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y184" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z184" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA184" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB184" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC184" s="12">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="AD184" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE184" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF184" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0379E640-6499-49F1-8B4A-1F57627A813E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C513A537-25E3-4D2C-ABA1-E2BFECD062B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="530">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2076,6 +2076,27 @@
   <si>
     <t>지옥도
 진광대왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥도
+태산대왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태산대왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적사신의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청사신의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영술사의 부채</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2549,11 +2570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF184"/>
+  <dimension ref="A1:AF188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15769,7 +15790,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC184" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC188" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -15988,7 +16009,7 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A184" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A188" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
@@ -20786,7 +20807,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" ref="B182:B184" si="4">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B182:B188" si="4">"weapon"&amp;ROW()-2</f>
         <v>weapon180</v>
       </c>
       <c r="C182" t="s">
@@ -21080,6 +21101,410 @@
         <v>76</v>
       </c>
       <c r="AF184" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="B185" t="str">
+        <f>"weapon"&amp;ROW()-2</f>
+        <v>weapon183</v>
+      </c>
+      <c r="C185" t="s">
+        <v>526</v>
+      </c>
+      <c r="D185">
+        <v>37</v>
+      </c>
+      <c r="E185">
+        <v>4</v>
+      </c>
+      <c r="F185">
+        <v>1.2</v>
+      </c>
+      <c r="G185">
+        <v>100</v>
+      </c>
+      <c r="H185">
+        <v>274</v>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+      <c r="T185" s="6">
+        <v>85</v>
+      </c>
+      <c r="U185" s="7">
+        <v>46</v>
+      </c>
+      <c r="V185" s="7">
+        <v>680000</v>
+      </c>
+      <c r="W185" s="7">
+        <v>46</v>
+      </c>
+      <c r="X185" s="7">
+        <v>680000</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z185" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA185" s="14">
+        <v>6600000000000</v>
+      </c>
+      <c r="AB185" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC185" s="12">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="AD185" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE185" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF185" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon184</v>
+      </c>
+      <c r="C186" t="s">
+        <v>527</v>
+      </c>
+      <c r="D186">
+        <v>35</v>
+      </c>
+      <c r="E186">
+        <v>4</v>
+      </c>
+      <c r="F186">
+        <v>1.2</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>275</v>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186" s="6">
+        <v>0</v>
+      </c>
+      <c r="U186" s="7">
+        <v>46</v>
+      </c>
+      <c r="V186" s="7">
+        <v>680000</v>
+      </c>
+      <c r="W186" s="7">
+        <v>46</v>
+      </c>
+      <c r="X186" s="7">
+        <v>680000</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z186" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA186" s="14">
+        <v>6600000000000</v>
+      </c>
+      <c r="AB186" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC186" s="12">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="AD186" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE186" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF186" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon185</v>
+      </c>
+      <c r="C187" t="s">
+        <v>528</v>
+      </c>
+      <c r="D187">
+        <v>35</v>
+      </c>
+      <c r="E187">
+        <v>4</v>
+      </c>
+      <c r="F187">
+        <v>1.2</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>276</v>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187" s="6">
+        <v>0</v>
+      </c>
+      <c r="U187" s="7">
+        <v>46</v>
+      </c>
+      <c r="V187" s="7">
+        <v>680000</v>
+      </c>
+      <c r="W187" s="7">
+        <v>46</v>
+      </c>
+      <c r="X187" s="7">
+        <v>680000</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z187" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA187" s="14">
+        <v>6600000000000</v>
+      </c>
+      <c r="AB187" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC187" s="12">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="AD187" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE187" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF187" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon186</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D188" s="1">
+        <v>18</v>
+      </c>
+      <c r="E188" s="1">
+        <v>4</v>
+      </c>
+      <c r="F188" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G188" s="1">
+        <v>0</v>
+      </c>
+      <c r="H188" s="1">
+        <v>265</v>
+      </c>
+      <c r="I188" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" s="1">
+        <v>0</v>
+      </c>
+      <c r="K188" s="1">
+        <v>0</v>
+      </c>
+      <c r="L188" s="1">
+        <v>0</v>
+      </c>
+      <c r="M188" s="1">
+        <v>0</v>
+      </c>
+      <c r="N188" s="1">
+        <v>0</v>
+      </c>
+      <c r="O188" s="1">
+        <v>0</v>
+      </c>
+      <c r="P188" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="1">
+        <v>0</v>
+      </c>
+      <c r="R188" s="1">
+        <v>0</v>
+      </c>
+      <c r="S188" s="1">
+        <v>0</v>
+      </c>
+      <c r="T188" s="18">
+        <v>0</v>
+      </c>
+      <c r="U188" s="19">
+        <v>0</v>
+      </c>
+      <c r="V188" s="19">
+        <v>0</v>
+      </c>
+      <c r="W188" s="19">
+        <v>0</v>
+      </c>
+      <c r="X188" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z188" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA188" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB188" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC188" s="12">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="AD188" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE188" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF188" s="12">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C513A537-25E3-4D2C-ABA1-E2BFECD062B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861A72DB-0A38-4C5E-AA3A-EE12EB5A31A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="535">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2097,6 +2097,27 @@
   </si>
   <si>
     <t>영술사의 부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초광대왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청사화의 부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백사화의 부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥도
+초광대왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청령화 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2570,11 +2591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF188"/>
+  <dimension ref="A1:AF192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A185" sqref="A185"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15790,7 +15811,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC188" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC192" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -16009,7 +16030,7 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A188" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A192" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
@@ -20807,7 +20828,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" ref="B182:B188" si="4">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B182:B192" si="4">"weapon"&amp;ROW()-2</f>
         <v>weapon180</v>
       </c>
       <c r="C182" t="s">
@@ -21505,6 +21526,410 @@
         <v>76</v>
       </c>
       <c r="AF188" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="B189" t="str">
+        <f>"weapon"&amp;ROW()-2</f>
+        <v>weapon187</v>
+      </c>
+      <c r="C189" t="s">
+        <v>530</v>
+      </c>
+      <c r="D189">
+        <v>37</v>
+      </c>
+      <c r="E189">
+        <v>4</v>
+      </c>
+      <c r="F189">
+        <v>1.2</v>
+      </c>
+      <c r="G189">
+        <v>100</v>
+      </c>
+      <c r="H189">
+        <v>278</v>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+      <c r="T189" s="6">
+        <v>86</v>
+      </c>
+      <c r="U189" s="7">
+        <v>46</v>
+      </c>
+      <c r="V189" s="7">
+        <v>700000</v>
+      </c>
+      <c r="W189" s="7">
+        <v>46</v>
+      </c>
+      <c r="X189" s="7">
+        <v>700000</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z189" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA189" s="14">
+        <v>6800000000000</v>
+      </c>
+      <c r="AB189" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC189" s="12">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="AD189" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE189" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF189" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon188</v>
+      </c>
+      <c r="C190" t="s">
+        <v>531</v>
+      </c>
+      <c r="D190">
+        <v>35</v>
+      </c>
+      <c r="E190">
+        <v>4</v>
+      </c>
+      <c r="F190">
+        <v>1.2</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>279</v>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>0</v>
+      </c>
+      <c r="S190">
+        <v>0</v>
+      </c>
+      <c r="T190" s="6">
+        <v>0</v>
+      </c>
+      <c r="U190" s="7">
+        <v>46</v>
+      </c>
+      <c r="V190" s="7">
+        <v>700000</v>
+      </c>
+      <c r="W190" s="7">
+        <v>46</v>
+      </c>
+      <c r="X190" s="7">
+        <v>700000</v>
+      </c>
+      <c r="Y190" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z190" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA190" s="14">
+        <v>6800000000000</v>
+      </c>
+      <c r="AB190" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC190" s="12">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="AD190" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE190" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF190" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon189</v>
+      </c>
+      <c r="C191" t="s">
+        <v>532</v>
+      </c>
+      <c r="D191">
+        <v>35</v>
+      </c>
+      <c r="E191">
+        <v>4</v>
+      </c>
+      <c r="F191">
+        <v>1.2</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>280</v>
+      </c>
+      <c r="I191" t="b">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>0</v>
+      </c>
+      <c r="S191">
+        <v>0</v>
+      </c>
+      <c r="T191" s="6">
+        <v>0</v>
+      </c>
+      <c r="U191" s="7">
+        <v>46</v>
+      </c>
+      <c r="V191" s="7">
+        <v>700000</v>
+      </c>
+      <c r="W191" s="7">
+        <v>46</v>
+      </c>
+      <c r="X191" s="7">
+        <v>700000</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z191" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA191" s="14">
+        <v>6800000000000</v>
+      </c>
+      <c r="AB191" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC191" s="12">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="AD191" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE191" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF191" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon190</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D192" s="1">
+        <v>18</v>
+      </c>
+      <c r="E192" s="1">
+        <v>4</v>
+      </c>
+      <c r="F192" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G192" s="1">
+        <v>0</v>
+      </c>
+      <c r="H192" s="1">
+        <v>265</v>
+      </c>
+      <c r="I192" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J192" s="1">
+        <v>0</v>
+      </c>
+      <c r="K192" s="1">
+        <v>0</v>
+      </c>
+      <c r="L192" s="1">
+        <v>0</v>
+      </c>
+      <c r="M192" s="1">
+        <v>0</v>
+      </c>
+      <c r="N192" s="1">
+        <v>0</v>
+      </c>
+      <c r="O192" s="1">
+        <v>0</v>
+      </c>
+      <c r="P192" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q192" s="1">
+        <v>0</v>
+      </c>
+      <c r="R192" s="1">
+        <v>0</v>
+      </c>
+      <c r="S192" s="1">
+        <v>0</v>
+      </c>
+      <c r="T192" s="18">
+        <v>0</v>
+      </c>
+      <c r="U192" s="19">
+        <v>0</v>
+      </c>
+      <c r="V192" s="19">
+        <v>0</v>
+      </c>
+      <c r="W192" s="19">
+        <v>0</v>
+      </c>
+      <c r="X192" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y192" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z192" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA192" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB192" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC192" s="12">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="AD192" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE192" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF192" s="12">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861A72DB-0A38-4C5E-AA3A-EE12EB5A31A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970D55A6-473E-4E7A-AF9E-DE2D7D3932ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="28830" windowHeight="7770" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="540">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2118,6 +2118,27 @@
   </si>
   <si>
     <t>청령화 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전륜대왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적열술사의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자열술사의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호접검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥도
+전륜대왕에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2591,11 +2612,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF192"/>
+  <dimension ref="A1:AF196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A190" sqref="A190"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15811,7 +15832,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC192" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC195" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -16030,7 +16051,7 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A192" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A196" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
@@ -20828,7 +20849,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" ref="B182:B192" si="4">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B182:B196" si="4">"weapon"&amp;ROW()-2</f>
         <v>weapon180</v>
       </c>
       <c r="C182" t="s">
@@ -21930,6 +21951,410 @@
         <v>76</v>
       </c>
       <c r="AF192" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="B193" t="str">
+        <f>"weapon"&amp;ROW()-2</f>
+        <v>weapon191</v>
+      </c>
+      <c r="C193" t="s">
+        <v>535</v>
+      </c>
+      <c r="D193">
+        <v>37</v>
+      </c>
+      <c r="E193">
+        <v>4</v>
+      </c>
+      <c r="F193">
+        <v>1.2</v>
+      </c>
+      <c r="G193">
+        <v>100</v>
+      </c>
+      <c r="H193">
+        <v>282</v>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193" s="6">
+        <v>87</v>
+      </c>
+      <c r="U193" s="7">
+        <v>46</v>
+      </c>
+      <c r="V193" s="7">
+        <v>720000</v>
+      </c>
+      <c r="W193" s="7">
+        <v>46</v>
+      </c>
+      <c r="X193" s="7">
+        <v>720000</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z193" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA193" s="14">
+        <v>7000000000000</v>
+      </c>
+      <c r="AB193" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="AC193" s="12">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="AD193" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE193" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF193" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon192</v>
+      </c>
+      <c r="C194" t="s">
+        <v>536</v>
+      </c>
+      <c r="D194">
+        <v>35</v>
+      </c>
+      <c r="E194">
+        <v>4</v>
+      </c>
+      <c r="F194">
+        <v>1.2</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>283</v>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194" s="6">
+        <v>0</v>
+      </c>
+      <c r="U194" s="7">
+        <v>46</v>
+      </c>
+      <c r="V194" s="7">
+        <v>720000</v>
+      </c>
+      <c r="W194" s="7">
+        <v>46</v>
+      </c>
+      <c r="X194" s="7">
+        <v>720000</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z194" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA194" s="14">
+        <v>7000000000000</v>
+      </c>
+      <c r="AB194" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC194" s="12">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="AD194" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE194" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF194" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon193</v>
+      </c>
+      <c r="C195" t="s">
+        <v>537</v>
+      </c>
+      <c r="D195">
+        <v>35</v>
+      </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
+      <c r="F195">
+        <v>1.2</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>284</v>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195" s="6">
+        <v>0</v>
+      </c>
+      <c r="U195" s="7">
+        <v>46</v>
+      </c>
+      <c r="V195" s="7">
+        <v>720000</v>
+      </c>
+      <c r="W195" s="7">
+        <v>46</v>
+      </c>
+      <c r="X195" s="7">
+        <v>720000</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z195" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA195" s="14">
+        <v>7000000000000</v>
+      </c>
+      <c r="AB195" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC195" s="12">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="AD195" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE195" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF195" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon194</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D196" s="1">
+        <v>18</v>
+      </c>
+      <c r="E196" s="1">
+        <v>4</v>
+      </c>
+      <c r="F196" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G196" s="1">
+        <v>0</v>
+      </c>
+      <c r="H196" s="1">
+        <v>265</v>
+      </c>
+      <c r="I196" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J196" s="1">
+        <v>0</v>
+      </c>
+      <c r="K196" s="1">
+        <v>0</v>
+      </c>
+      <c r="L196" s="1">
+        <v>0</v>
+      </c>
+      <c r="M196" s="1">
+        <v>0</v>
+      </c>
+      <c r="N196" s="1">
+        <v>0</v>
+      </c>
+      <c r="O196" s="1">
+        <v>0</v>
+      </c>
+      <c r="P196" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q196" s="1">
+        <v>0</v>
+      </c>
+      <c r="R196" s="1">
+        <v>0</v>
+      </c>
+      <c r="S196" s="1">
+        <v>0</v>
+      </c>
+      <c r="T196" s="18">
+        <v>0</v>
+      </c>
+      <c r="U196" s="19">
+        <v>0</v>
+      </c>
+      <c r="V196" s="19">
+        <v>0</v>
+      </c>
+      <c r="W196" s="19">
+        <v>0</v>
+      </c>
+      <c r="X196" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y196" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z196" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA196" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB196" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC196" s="12">
+        <f t="shared" ref="AC196" si="5">ROW()-2</f>
+        <v>194</v>
+      </c>
+      <c r="AD196" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE196" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF196" s="12">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970D55A6-473E-4E7A-AF9E-DE2D7D3932ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212E09AE-FF39-4527-ACFF-700D52E6034F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="28830" windowHeight="7770" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="543">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2139,6 +2139,19 @@
   <si>
     <t>지옥도
 전륜대왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백련화신의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주년 전야제 이벤트검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상도
+백련화신에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2612,11 +2625,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF196"/>
+  <dimension ref="A1:AF198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C193" sqref="C193"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U200" sqref="U200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15832,7 +15845,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC195" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC197" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -16051,7 +16064,7 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A196" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A198" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
@@ -20849,7 +20862,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" ref="B182:B196" si="4">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B182:B198" si="4">"weapon"&amp;ROW()-2</f>
         <v>weapon180</v>
       </c>
       <c r="C182" t="s">
@@ -22345,7 +22358,7 @@
         <v>511</v>
       </c>
       <c r="AC196" s="12">
-        <f t="shared" ref="AC196" si="5">ROW()-2</f>
+        <f t="shared" ref="AC196:AC198" si="5">ROW()-2</f>
         <v>194</v>
       </c>
       <c r="AD196" s="12">
@@ -22355,6 +22368,208 @@
         <v>76</v>
       </c>
       <c r="AF196" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon195</v>
+      </c>
+      <c r="C197" t="s">
+        <v>540</v>
+      </c>
+      <c r="D197">
+        <v>38</v>
+      </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
+      <c r="F197">
+        <v>1.2</v>
+      </c>
+      <c r="G197">
+        <v>100</v>
+      </c>
+      <c r="H197">
+        <v>286</v>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <v>0</v>
+      </c>
+      <c r="T197" s="6">
+        <v>88</v>
+      </c>
+      <c r="U197" s="7">
+        <v>46</v>
+      </c>
+      <c r="V197" s="7">
+        <v>740000</v>
+      </c>
+      <c r="W197" s="7">
+        <v>46</v>
+      </c>
+      <c r="X197" s="7">
+        <v>740000</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z197" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA197" s="14">
+        <v>7200000000000</v>
+      </c>
+      <c r="AB197" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC197" s="12">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="AD197" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE197" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF197" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon196</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D198" s="1">
+        <v>18</v>
+      </c>
+      <c r="E198" s="1">
+        <v>4</v>
+      </c>
+      <c r="F198" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G198" s="1">
+        <v>0</v>
+      </c>
+      <c r="H198" s="1">
+        <v>265</v>
+      </c>
+      <c r="I198" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" s="1">
+        <v>0</v>
+      </c>
+      <c r="K198" s="1">
+        <v>0</v>
+      </c>
+      <c r="L198" s="1">
+        <v>0</v>
+      </c>
+      <c r="M198" s="1">
+        <v>0</v>
+      </c>
+      <c r="N198" s="1">
+        <v>0</v>
+      </c>
+      <c r="O198" s="1">
+        <v>0</v>
+      </c>
+      <c r="P198" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q198" s="1">
+        <v>0</v>
+      </c>
+      <c r="R198" s="1">
+        <v>0</v>
+      </c>
+      <c r="S198" s="1">
+        <v>0</v>
+      </c>
+      <c r="T198" s="18">
+        <v>0</v>
+      </c>
+      <c r="U198" s="19">
+        <v>0</v>
+      </c>
+      <c r="V198" s="19">
+        <v>0</v>
+      </c>
+      <c r="W198" s="19">
+        <v>0</v>
+      </c>
+      <c r="X198" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y198" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z198" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA198" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB198" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC198" s="12">
+        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="AD198" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE198" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF198" s="12">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212E09AE-FF39-4527-ACFF-700D52E6034F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87BD780-9762-4E42-94A6-C56E6D4C03DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="545">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2152,6 +2152,15 @@
   <si>
     <t>천상도
 백련화신에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑오화신의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상도
+흑오화신에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2625,11 +2634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF198"/>
+  <dimension ref="A1:AF199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U200" sqref="U200"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15845,7 +15854,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC197" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC199" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -16064,7 +16073,7 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A198" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A199" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
@@ -20862,7 +20871,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" ref="B182:B198" si="4">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B182:B199" si="4">"weapon"&amp;ROW()-2</f>
         <v>weapon180</v>
       </c>
       <c r="C182" t="s">
@@ -22571,6 +22580,107 @@
       </c>
       <c r="AF198" s="12">
         <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon197</v>
+      </c>
+      <c r="C199" t="s">
+        <v>543</v>
+      </c>
+      <c r="D199">
+        <v>38</v>
+      </c>
+      <c r="E199">
+        <v>4</v>
+      </c>
+      <c r="F199">
+        <v>1.2</v>
+      </c>
+      <c r="G199">
+        <v>100</v>
+      </c>
+      <c r="H199">
+        <v>288</v>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+      <c r="T199" s="6">
+        <v>89</v>
+      </c>
+      <c r="U199" s="7">
+        <v>46</v>
+      </c>
+      <c r="V199" s="7">
+        <v>760000</v>
+      </c>
+      <c r="W199" s="7">
+        <v>46</v>
+      </c>
+      <c r="X199" s="7">
+        <v>760000</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z199" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA199" s="14">
+        <v>7400000000000</v>
+      </c>
+      <c r="AB199" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="AC199" s="12">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="AD199" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE199" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF199" s="12">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87BD780-9762-4E42-94A6-C56E6D4C03DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781F4036-C0E4-48F6-92CB-4796F38C3805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="547">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2161,6 +2161,15 @@
   <si>
     <t>천상도
 흑오화신에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자령화신의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상도
+자령화신에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2634,11 +2643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF199"/>
+  <dimension ref="A1:AF200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A199" sqref="A199"/>
+      <selection pane="bottomLeft" activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15854,7 +15863,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC199" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC200" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -16073,7 +16082,7 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A199" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A200" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
@@ -20871,7 +20880,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" ref="B182:B199" si="4">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B182:B200" si="4">"weapon"&amp;ROW()-2</f>
         <v>weapon180</v>
       </c>
       <c r="C182" t="s">
@@ -22680,6 +22689,107 @@
         <v>76</v>
       </c>
       <c r="AF199" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon198</v>
+      </c>
+      <c r="C200" t="s">
+        <v>545</v>
+      </c>
+      <c r="D200">
+        <v>38</v>
+      </c>
+      <c r="E200">
+        <v>4</v>
+      </c>
+      <c r="F200">
+        <v>1.2</v>
+      </c>
+      <c r="G200">
+        <v>100</v>
+      </c>
+      <c r="H200">
+        <v>290</v>
+      </c>
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>0</v>
+      </c>
+      <c r="S200">
+        <v>0</v>
+      </c>
+      <c r="T200" s="6">
+        <v>90</v>
+      </c>
+      <c r="U200" s="7">
+        <v>46</v>
+      </c>
+      <c r="V200" s="7">
+        <v>780000</v>
+      </c>
+      <c r="W200" s="7">
+        <v>46</v>
+      </c>
+      <c r="X200" s="7">
+        <v>780000</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z200" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA200" s="14">
+        <v>7600000000000</v>
+      </c>
+      <c r="AB200" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="AC200" s="12">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="AD200" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE200" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF200" s="12">
         <v>0.3</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781F4036-C0E4-48F6-92CB-4796F38C3805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F8D639-1010-49C9-A1F8-8932A3AE200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="549">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2170,6 +2170,15 @@
   <si>
     <t>천상도
 자령화신에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백열화신의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상도
+백열화신에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2643,11 +2652,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF200"/>
+  <dimension ref="A1:AF201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A200" sqref="A200"/>
+      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15863,7 +15872,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC200" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC201" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -16082,7 +16091,7 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A200" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A201" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
@@ -20880,7 +20889,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" ref="B182:B200" si="4">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B182:B201" si="4">"weapon"&amp;ROW()-2</f>
         <v>weapon180</v>
       </c>
       <c r="C182" t="s">
@@ -22790,6 +22799,107 @@
         <v>76</v>
       </c>
       <c r="AF200" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon199</v>
+      </c>
+      <c r="C201" t="s">
+        <v>547</v>
+      </c>
+      <c r="D201">
+        <v>38</v>
+      </c>
+      <c r="E201">
+        <v>4</v>
+      </c>
+      <c r="F201">
+        <v>1.2</v>
+      </c>
+      <c r="G201">
+        <v>100</v>
+      </c>
+      <c r="H201">
+        <v>292</v>
+      </c>
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="S201">
+        <v>0</v>
+      </c>
+      <c r="T201" s="6">
+        <v>91</v>
+      </c>
+      <c r="U201" s="7">
+        <v>46</v>
+      </c>
+      <c r="V201" s="7">
+        <v>800000</v>
+      </c>
+      <c r="W201" s="7">
+        <v>46</v>
+      </c>
+      <c r="X201" s="7">
+        <v>800000</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z201" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA201" s="14">
+        <v>7800000000000</v>
+      </c>
+      <c r="AB201" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="AC201" s="12">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="AD201" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE201" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF201" s="12">
         <v>0.3</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F8D639-1010-49C9-A1F8-8932A3AE200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D491F0F-ACB5-40F0-AE27-52A06325360C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="551">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2179,6 +2179,15 @@
   <si>
     <t>천상도
 백열화신에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑열화신의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상도
+흑열화신에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2652,11 +2661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF201"/>
+  <dimension ref="A1:AF202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB202" sqref="AB202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15872,7 +15881,7 @@
         <v>415</v>
       </c>
       <c r="AC132" s="12">
-        <f t="shared" ref="AC132:AC201" si="0">ROW()-2</f>
+        <f t="shared" ref="AC132:AC202" si="0">ROW()-2</f>
         <v>130</v>
       </c>
       <c r="AD132" s="12">
@@ -16091,7 +16100,7 @@
     </row>
     <row r="135" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A201" si="1">ROW()-2</f>
+        <f t="shared" ref="A135:A202" si="1">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="B135" t="str">
@@ -20889,7 +20898,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" ref="B182:B201" si="4">"weapon"&amp;ROW()-2</f>
+        <f t="shared" ref="B182:B202" si="4">"weapon"&amp;ROW()-2</f>
         <v>weapon180</v>
       </c>
       <c r="C182" t="s">
@@ -22900,6 +22909,107 @@
         <v>76</v>
       </c>
       <c r="AF201" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="4"/>
+        <v>weapon200</v>
+      </c>
+      <c r="C202" t="s">
+        <v>549</v>
+      </c>
+      <c r="D202">
+        <v>38</v>
+      </c>
+      <c r="E202">
+        <v>4</v>
+      </c>
+      <c r="F202">
+        <v>1.2</v>
+      </c>
+      <c r="G202">
+        <v>100</v>
+      </c>
+      <c r="H202">
+        <v>294</v>
+      </c>
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+      <c r="T202" s="6">
+        <v>92</v>
+      </c>
+      <c r="U202" s="7">
+        <v>46</v>
+      </c>
+      <c r="V202" s="7">
+        <v>820000</v>
+      </c>
+      <c r="W202" s="7">
+        <v>46</v>
+      </c>
+      <c r="X202" s="7">
+        <v>820000</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z202" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA202" s="14">
+        <v>8000000000000</v>
+      </c>
+      <c r="AB202" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="AC202" s="12">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="AD202" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE202" s="12">
+        <v>76</v>
+      </c>
+      <c r="AF202" s="12">
         <v>0.3</v>
       </c>
     </row>
